--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -44,7 +44,73 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 9:24 AM</t>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 17 September, 2025 10:18 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +320,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +332,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +740,202 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
         <v>13</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>27</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>26</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>27</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>33</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>34</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>35</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +949,30 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -110,7 +110,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 10:18 AM</t>
+    <t>Wednesday, 17 September, 2025 10:56 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
     <t>4:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -65,9 +77,6 @@
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -80,9 +89,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>16.3200</t>
   </si>
   <si>
@@ -110,7 +116,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 10:56 AM</t>
+    <t>Wednesday, 17 September, 2025 10:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -768,7 +774,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -777,14 +783,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -794,14 +800,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -817,7 +823,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -827,14 +833,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -843,31 +849,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -876,66 +882,99 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>32</v>
       </c>
-      <c t="s" r="Q11" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>132.19999999999999</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>28</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>29</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>33</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>34</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>234.19999999999999</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
         <v>35</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>36</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>37</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -969,10 +1008,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -47,36 +47,39 @@
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>153.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -116,7 +119,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 10:57 AM</t>
+    <t>Wednesday, 17 September, 2025 10:59 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -774,7 +777,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -783,14 +786,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -800,14 +803,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -823,7 +826,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -833,14 +836,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -849,14 +852,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -870,10 +873,10 @@
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -882,31 +885,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -915,42 +918,42 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
       <c r="P13" s="13">
-        <v>234.19999999999999</v>
+        <v>285.19999999999999</v>
       </c>
       <c r="Q13" s="13"/>
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c t="s" r="A14" s="14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -958,13 +961,13 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c t="s" r="G14" s="15">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c t="s" r="K14" s="17">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -65,13 +65,16 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>4:2</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0:0</t>
   </si>
   <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
@@ -86,21 +89,27 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>16.3200</t>
+    <t>3:1</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -119,7 +128,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 10:59 AM</t>
+    <t>Wednesday, 17 September, 2025 11:12 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -810,7 +819,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -819,14 +828,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -836,14 +845,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -852,14 +861,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -869,11 +878,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -885,31 +894,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -918,20 +927,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -942,42 +951,75 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>285.19999999999999</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>36</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>21</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>33</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>37</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c t="s" r="Q13" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>269</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>39</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>40</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>41</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1016,10 +1058,15 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -128,7 +128,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 11:12 AM</t>
+    <t>Wednesday, 17 September, 2025 11:13 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -117,15 +117,6 @@
   </si>
   <si>
     <t>2.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
   </si>
   <si>
     <t>Wednesday, 17 September, 2025 11:13 AM</t>
@@ -955,71 +946,38 @@
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="A13" s="7">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c t="s" r="C13" s="8">
+      <c r="P13" s="13">
+        <v>266</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
         <v>36</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c t="s" r="H13" s="9">
-        <v>21</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c t="s" r="L13" s="10">
-        <v>33</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c t="s" r="N13" s="8">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
         <v>37</v>
       </c>
-      <c r="O13" s="8"/>
-      <c t="s" r="P13" s="11">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
         <v>38</v>
       </c>
-      <c t="s" r="Q13" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>269</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
-        <v>39</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
-        <v>40</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
-        <v>41</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1058,15 +1016,10 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -62,6 +62,30 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -80,15 +104,39 @@
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
     <t>99.0000</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -101,25 +149,121 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>LANTOPEP 60 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
     <t>3:1</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>43:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 11:13 AM</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 17 September, 2025 11:24 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -826,7 +970,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -836,14 +980,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -852,14 +996,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -869,14 +1013,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -892,7 +1036,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -902,11 +1046,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -918,66 +1062,528 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>266</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
-        <v>36</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>37</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>38</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>39</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>43</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>44</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>21</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>16</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>50</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>53</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>54</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>56</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>34</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>57</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>60</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>61</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>63</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>14</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>66</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>39</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>67</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>70</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>39</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>71</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>73</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>29</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>39</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>74</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>76</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>29</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>39</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>77</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>29</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>39</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>67</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>81</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>39</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>82</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>712.93499999999995</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>84</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>85</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>86</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1016,10 +1622,80 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -263,7 +263,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 11:24 AM</t>
+    <t>Wednesday, 17 September, 2025 11:25 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -263,7 +263,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 11:25 AM</t>
+    <t>Wednesday, 17 September, 2025 11:37 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -263,7 +263,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 11:37 AM</t>
+    <t>Wednesday, 17 September, 2025 11:39 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>BLINK INTENSIVE TEARS EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>280.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>31.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -86,126 +98,153 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>-11.8800</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LANTOPEP 60 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
   </si>
   <si>
     <t>0.0000</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LANTOPEP 60 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>ROWACHOL 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -263,7 +302,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 11:39 AM</t>
+    <t>Wednesday, 17 September, 2025 11:41 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -970,7 +1009,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -980,14 +1019,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -996,14 +1035,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1020,7 +1059,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1029,14 +1068,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1053,7 +1092,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1062,14 +1101,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1079,14 +1118,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1095,31 +1134,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1128,14 +1167,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1145,14 +1184,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1161,7 +1200,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1178,14 +1217,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1194,14 +1233,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1211,11 +1250,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1227,31 +1266,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1260,14 +1299,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1277,14 +1316,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1293,14 +1332,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1310,11 +1349,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1326,14 +1365,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1343,14 +1382,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1359,31 +1398,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1392,28 +1431,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1425,31 +1464,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1458,31 +1497,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1491,28 +1530,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1524,66 +1563,198 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>712.93499999999995</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>84</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
-        <v>85</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>86</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>18</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>51</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>87</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>89</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>18</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>51</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>90</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>92</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>18</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>51</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>80</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>93</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>94</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>51</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>95</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1043.175</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>97</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>98</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>99</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1692,10 +1863,30 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -302,7 +302,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 11:41 AM</t>
+    <t>Wednesday, 17 September, 2025 11:47 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -302,7 +302,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 11:47 AM</t>
+    <t>Wednesday, 17 September, 2025 11:51 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -161,9 +173,6 @@
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -203,18 +212,36 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>ROWACHOL 45 CAPSULES</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>93.00</t>
   </si>
   <si>
     <t>30.6900</t>
   </si>
   <si>
+    <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>82.5000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -302,7 +329,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 11:51 AM</t>
+    <t>Wednesday, 17 September, 2025 11:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1042,7 +1069,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1052,11 +1079,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1068,14 +1095,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1092,7 +1119,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1101,14 +1128,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1118,14 +1145,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1134,14 +1161,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1151,14 +1178,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1167,14 +1194,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1184,14 +1211,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1200,7 +1227,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1217,11 +1244,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1233,14 +1260,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1257,7 +1284,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1279,18 +1306,18 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1299,31 +1326,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1332,14 +1359,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1372,7 +1399,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1405,7 +1432,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1415,11 +1442,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1431,14 +1458,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1455,7 +1482,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1471,7 +1498,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1481,11 +1508,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1497,14 +1524,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1514,14 +1541,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1530,28 +1557,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1563,31 +1590,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1596,31 +1623,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1629,28 +1656,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1662,28 +1689,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1695,66 +1722,165 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1043.175</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>97</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>98</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>18</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>54</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>99</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>101</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>18</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>54</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>89</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>102</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>103</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>54</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>104</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1170.675</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>106</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>107</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>108</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1883,10 +2009,25 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>BLINK INTENSIVE TEARS EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -149,6 +161,12 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
     <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
   </si>
   <si>
@@ -243,12 +261,6 @@
   </si>
   <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
   </si>
   <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
@@ -1020,7 +1032,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1029,14 +1041,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1046,14 +1058,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1086,7 +1098,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1102,7 +1114,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1112,11 +1124,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1128,14 +1140,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1152,7 +1164,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1161,14 +1173,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1178,14 +1190,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1194,14 +1206,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1211,14 +1223,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1227,14 +1239,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1244,14 +1256,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1260,14 +1272,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1277,14 +1289,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1293,14 +1305,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1314,10 +1326,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1326,31 +1338,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1359,14 +1371,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1376,11 +1388,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1392,31 +1404,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1425,14 +1437,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1465,7 +1477,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1475,11 +1487,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1491,14 +1503,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1508,11 +1520,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1524,14 +1536,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1564,7 +1576,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1581,7 +1593,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1597,7 +1609,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1607,11 +1619,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1623,14 +1635,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1640,14 +1652,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1656,31 +1668,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1689,31 +1701,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1722,31 +1734,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1755,31 +1767,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1788,31 +1800,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1828,59 +1840,125 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>105</v>
       </c>
-      <c t="s" r="Q33" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1170.675</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>22</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>60</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>93</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>106</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>107</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>60</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>108</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1222.675</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>110</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>111</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>112</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2024,10 +2102,20 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -341,7 +341,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 11:56 AM</t>
+    <t>Wednesday, 17 September, 2025 11:58 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -152,6 +152,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -308,6 +317,9 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -341,7 +353,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 11:58 AM</t>
+    <t>Wednesday, 17 September, 2025 12:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1279,7 +1291,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1312,7 +1324,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1326,7 +1338,7 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>25</v>
@@ -1338,14 +1350,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1355,11 +1367,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>25</v>
@@ -1378,7 +1390,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1388,14 +1400,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1404,31 +1416,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1437,31 +1449,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1470,14 +1482,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1510,7 +1522,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1543,7 +1555,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1553,11 +1565,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1569,14 +1581,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1609,7 +1621,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1642,7 +1654,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1652,14 +1664,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1668,14 +1680,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1685,14 +1697,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1701,14 +1713,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1718,14 +1730,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1747,18 +1759,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1767,28 +1779,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -1800,20 +1812,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1840,21 +1852,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -1866,7 +1878,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1879,15 +1891,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -1906,59 +1918,125 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1222.675</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>109</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>22</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>63</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>96</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>110</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
         <v>111</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>63</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>112</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1282.675</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>114</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>115</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>116</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2112,10 +2190,20 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -176,6 +188,15 @@
     <t>26.00</t>
   </si>
   <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
   </si>
   <si>
@@ -251,6 +272,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t>ROWACHOL 45 CAPSULES</t>
   </si>
   <si>
@@ -353,7 +383,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 12:36 PM</t>
+    <t>Wednesday, 17 September, 2025 12:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1159,7 +1189,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1169,11 +1199,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1185,14 +1215,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1209,7 +1239,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1218,14 +1248,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1235,14 +1265,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1251,14 +1281,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1268,14 +1298,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1284,14 +1314,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1301,14 +1331,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1317,14 +1347,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1334,11 +1364,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>25</v>
@@ -1350,14 +1380,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1367,11 +1397,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>25</v>
@@ -1383,14 +1413,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1400,11 +1430,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>25</v>
@@ -1416,14 +1446,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1456,21 +1486,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>25</v>
@@ -1482,14 +1512,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1499,11 +1529,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1515,20 +1545,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1539,7 +1569,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1555,7 +1585,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1565,11 +1595,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1581,14 +1611,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1621,7 +1651,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1654,7 +1684,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1664,11 +1694,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1680,14 +1710,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1697,14 +1727,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1713,14 +1743,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1730,11 +1760,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1746,14 +1776,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1763,14 +1793,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1779,28 +1809,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -1812,31 +1842,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1845,31 +1875,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1878,28 +1908,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -1911,28 +1941,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -1944,28 +1974,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -1977,66 +2007,165 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1282.675</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>114</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>115</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>116</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>22</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>70</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>117</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>119</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>22</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>70</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>106</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>120</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>121</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>70</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>122</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1447.7349999999999</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>124</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>125</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>126</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2200,10 +2329,25 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -383,7 +383,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 12:38 PM</t>
+    <t>Wednesday, 17 September, 2025 12:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -368,6 +368,18 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>قطن ازن صغير</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -383,7 +395,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 12:59 PM</t>
+    <t>Wednesday, 17 September, 2025 1:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2080,7 +2092,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2090,11 +2102,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2106,14 +2118,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2123,49 +2135,82 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1447.7349999999999</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>124</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
         <v>125</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>70</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>126</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1457.7349999999999</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>128</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>129</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>130</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2344,10 +2389,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -395,7 +395,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 1:38 PM</t>
+    <t>Wednesday, 17 September, 2025 1:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -317,10 +317,7 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>0.0000</t>
+    <t>16.3200</t>
   </si>
   <si>
     <t>بلاستر مترسيلك 2 سم</t>
@@ -356,7 +353,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -365,7 +362,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>قطن ازن صغير</t>
@@ -395,7 +392,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 1:42 PM</t>
+    <t>Wednesday, 17 September, 2025 1:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1894,7 +1891,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1908,10 +1905,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1920,14 +1917,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1937,11 +1934,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -1953,14 +1950,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1970,11 +1967,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -1986,7 +1983,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2003,11 +2000,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2019,7 +2016,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2036,14 +2033,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2052,7 +2049,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2069,14 +2066,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2085,14 +2082,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2102,11 +2099,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2118,7 +2115,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2135,11 +2132,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2151,14 +2148,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2168,11 +2165,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2180,13 +2177,13 @@
     </row>
     <row r="42" ht="25.5" customHeight="1">
       <c r="P42" s="13">
-        <v>1457.7349999999999</v>
+        <v>1479.0550000000001</v>
       </c>
       <c r="Q42" s="13"/>
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c t="s" r="A43" s="14">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2194,13 +2191,13 @@
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c t="s" r="G43" s="15">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="16"/>
       <c t="s" r="K43" s="17">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -392,7 +392,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 1:43 PM</t>
+    <t>Wednesday, 17 September, 2025 2:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -86,9 +95,6 @@
     <t>280.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -164,6 +170,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
   </si>
   <si>
@@ -182,6 +197,33 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -251,6 +293,24 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -299,6 +359,18 @@
     <t>82.5000</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -392,7 +464,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 2:09 PM</t>
+    <t>Wednesday, 17 September, 2025 2:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1076,11 +1148,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -1092,14 +1164,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1109,14 +1181,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1125,14 +1197,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1142,14 +1214,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1158,14 +1230,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1175,14 +1247,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1191,14 +1263,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1208,11 +1280,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1224,14 +1296,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1241,11 +1313,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1257,14 +1329,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1274,14 +1346,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1290,14 +1362,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1307,14 +1379,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1330,7 +1402,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1340,14 +1412,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1356,14 +1428,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1373,14 +1445,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1389,14 +1461,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1406,14 +1478,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1422,14 +1494,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1439,14 +1511,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1462,7 +1534,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1479,7 +1551,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1495,7 +1567,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1512,7 +1584,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1528,7 +1600,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1538,11 +1610,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1554,31 +1626,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1587,14 +1659,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1604,14 +1676,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1620,14 +1692,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1637,11 +1709,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1653,14 +1725,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1670,14 +1742,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1686,14 +1758,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1703,11 +1775,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1719,31 +1791,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1752,14 +1824,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1769,11 +1841,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1785,14 +1857,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1802,11 +1874,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1818,14 +1890,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1835,14 +1907,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1858,7 +1930,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1868,11 +1940,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1884,14 +1956,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1901,7 +1973,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -1930,7 +2002,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1941,7 +2013,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1957,24 +2029,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1983,31 +2055,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2016,31 +2088,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2049,31 +2121,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2082,31 +2154,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2115,31 +2187,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2148,66 +2220,330 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>127</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>128</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>84</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>129</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>131</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>132</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>84</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>133</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>135</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>29</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>84</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>133</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>136</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1479.0550000000001</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>127</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>128</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>84</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>137</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>139</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>25</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>84</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>140</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>142</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>143</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>84</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>144</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>146</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>25</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>84</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>129</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>147</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>148</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>84</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>149</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1931.7000000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>151</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>152</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>153</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2391,10 +2727,50 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -464,7 +464,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 2:10 PM</t>
+    <t>Wednesday, 17 September, 2025 2:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -158,75 +158,102 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -350,6 +377,12 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
     <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
   </si>
   <si>
@@ -362,9 +395,6 @@
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>136.50</t>
   </si>
   <si>
@@ -407,18 +437,18 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>43:0</t>
+    <t>42:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -434,7 +464,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>قطن ازن صغير</t>
@@ -452,19 +482,19 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 17 September, 2025 2:11 PM</t>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 17 September, 2025 5:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1402,7 +1432,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1416,10 +1446,10 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1468,7 +1498,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1478,11 +1508,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1494,14 +1524,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1511,14 +1541,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1527,14 +1557,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1544,11 +1574,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1560,7 +1590,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1577,14 +1607,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1593,14 +1623,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1610,14 +1640,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1626,7 +1656,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1643,11 +1673,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1659,14 +1689,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1676,14 +1706,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1692,14 +1722,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1709,11 +1739,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1725,14 +1755,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1742,11 +1772,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1758,14 +1788,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1775,11 +1805,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1791,28 +1821,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -1824,14 +1854,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1841,11 +1871,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1857,31 +1887,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1890,14 +1920,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1907,14 +1937,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1923,14 +1953,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1940,11 +1970,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1956,14 +1986,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1973,14 +2003,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1989,14 +2019,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2006,11 +2036,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2022,14 +2052,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2039,11 +2069,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2055,14 +2085,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2072,11 +2102,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2088,14 +2118,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2105,11 +2135,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2121,14 +2151,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2138,11 +2168,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2154,14 +2184,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2171,14 +2201,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2187,14 +2217,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2204,11 +2234,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2220,14 +2250,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2237,11 +2267,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2253,28 +2283,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2299,7 +2329,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2310,7 +2340,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2326,24 +2356,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2352,31 +2382,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2385,28 +2415,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>33</v>
@@ -2418,24 +2448,24 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2464,18 +2494,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2484,66 +2514,165 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>152</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>153</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>93</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>154</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1931.7000000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>151</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>152</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>153</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>156</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>25</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>93</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>139</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>158</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>80</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>93</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>159</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2162.1100000000001</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>161</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>162</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>163</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2767,10 +2896,25 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -494,7 +494,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 5:10 PM</t>
+    <t>Wednesday, 17 September, 2025 5:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -47,36 +47,48 @@
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>153.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>153.0000</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>52.00</t>
   </si>
   <si>
@@ -143,21 +155,24 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>-11.8800</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>4:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>-11.8800</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
     <t>0.0000</t>
   </si>
   <si>
@@ -239,6 +254,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -347,12 +374,18 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -404,6 +437,9 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -434,21 +470,27 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جلسرين اوبال </t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
     <t>42:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -470,9 +512,6 @@
     <t>قطن ازن صغير</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -488,13 +527,19 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 5:28 PM</t>
+    <t>مسك الرمان</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>Wednesday, 17 September, 2025 5:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1178,14 +1223,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1194,7 +1239,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1211,14 +1256,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1227,14 +1272,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1251,7 +1296,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1284,7 +1329,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1317,7 +1362,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1350,7 +1395,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1366,7 +1411,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1376,14 +1421,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1392,14 +1437,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1416,7 +1461,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1425,14 +1470,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1442,14 +1487,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1458,14 +1503,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1475,14 +1520,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1491,14 +1536,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1508,14 +1553,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1524,14 +1569,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1541,14 +1586,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1557,14 +1602,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1574,14 +1619,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1590,14 +1635,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1607,14 +1652,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1623,14 +1668,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1640,14 +1685,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1656,14 +1701,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1673,14 +1718,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1689,7 +1734,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1706,14 +1751,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1722,14 +1767,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1739,14 +1784,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1755,14 +1800,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1772,14 +1817,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1788,14 +1833,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1805,14 +1850,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1821,14 +1866,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1838,14 +1883,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1854,14 +1899,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1871,14 +1916,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1887,31 +1932,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1920,14 +1965,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1937,14 +1982,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1953,31 +1998,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1986,14 +2031,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2003,14 +2048,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2019,14 +2064,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2036,14 +2081,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2052,14 +2097,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2069,14 +2114,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2085,14 +2130,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2102,14 +2147,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2118,14 +2163,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2135,14 +2180,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2151,14 +2196,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2168,14 +2213,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2184,14 +2229,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2201,14 +2246,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2217,14 +2262,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2234,14 +2279,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2250,14 +2295,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2267,14 +2312,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2283,14 +2328,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2300,14 +2345,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2316,14 +2361,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2333,14 +2378,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2349,14 +2394,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2366,14 +2411,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2382,31 +2427,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2415,31 +2460,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2448,31 +2493,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2481,31 +2526,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2514,31 +2559,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2547,31 +2592,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2580,31 +2625,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2613,66 +2658,231 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2162.1100000000001</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>161</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>162</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>163</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>29</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>102</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>164</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>166</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>142</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>102</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>167</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>169</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>29</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>102</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>151</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>171</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>89</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>102</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>83</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>173</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>174</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>102</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>175</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2319.5300000000002</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>176</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>177</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>178</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2911,10 +3121,35 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -266,6 +266,15 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -369,9 +378,6 @@
   </si>
   <si>
     <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
   </si>
   <si>
     <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
@@ -1840,7 +1846,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1857,7 +1863,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1873,7 +1879,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1883,14 +1889,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1906,7 +1912,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1916,14 +1922,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1939,7 +1945,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1956,7 +1962,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1972,7 +1978,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1982,14 +1988,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1998,31 +2004,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2031,31 +2037,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2064,14 +2070,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2121,7 +2127,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2137,7 +2143,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2154,7 +2160,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2170,7 +2176,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2203,7 +2209,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2217,10 +2223,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2229,14 +2235,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2246,14 +2252,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2262,14 +2268,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2279,11 +2285,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
@@ -2295,14 +2301,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2312,11 +2318,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
@@ -2328,14 +2334,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2345,11 +2351,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>24</v>
@@ -2368,7 +2374,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2378,11 +2384,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>24</v>
@@ -2394,14 +2400,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2411,11 +2417,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>24</v>
@@ -2427,14 +2433,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2444,14 +2450,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2477,14 +2483,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2493,14 +2499,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2510,7 +2516,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2533,24 +2539,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2559,28 +2565,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2592,31 +2598,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2632,24 +2638,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2658,31 +2664,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2691,7 +2697,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2704,18 +2710,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2724,31 +2730,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2757,31 +2763,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2797,17 +2803,17 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2830,59 +2836,92 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>175</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>176</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>105</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>177</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2319.5300000000002</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>176</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>177</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2395.5300000000002</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
         <v>178</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>179</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>180</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3146,10 +3185,15 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -545,7 +545,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 5:41 PM</t>
+    <t>Wednesday, 17 September, 2025 5:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -95,6 +95,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>BLINK INTENSIVE TEARS EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -176,6 +185,15 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -248,9 +266,6 @@
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>16.8300</t>
   </si>
   <si>
@@ -347,6 +362,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 250MG 14 TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
     <t>LANTOPEP 60 MG 20 CAPS.</t>
   </si>
   <si>
@@ -365,6 +389,15 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
@@ -464,6 +497,15 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -497,13 +539,25 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -515,15 +569,12 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
     <t>قطن ازن صغير</t>
   </si>
   <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -545,7 +596,16 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 5:50 PM</t>
+    <t>معجون اسنان المسوك الصغير</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>معجون اسنان سيجنال 120 مل عرض</t>
+  </si>
+  <si>
+    <t>Wednesday, 17 September, 2025 6:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1318,7 +1378,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1328,14 +1388,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1344,14 +1404,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1361,11 +1421,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1377,14 +1437,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1394,14 +1454,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1410,14 +1470,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1427,11 +1487,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>24</v>
@@ -1443,14 +1503,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1483,7 +1543,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1493,14 +1553,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1509,14 +1569,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1526,14 +1586,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>54</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1549,7 +1609,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1559,14 +1619,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1582,7 +1642,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1592,14 +1652,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1608,14 +1668,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1625,11 +1685,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>24</v>
@@ -1641,14 +1701,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1665,7 +1725,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1698,7 +1758,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1714,7 +1774,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1724,14 +1784,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1740,7 +1800,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1757,14 +1817,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1773,14 +1833,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1797,7 +1857,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1813,7 +1873,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1823,14 +1883,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1839,14 +1899,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1856,14 +1916,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1872,14 +1932,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1889,14 +1949,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1905,14 +1965,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1922,11 +1982,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1938,14 +1998,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1955,11 +2015,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -1971,14 +2031,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1992,7 +2052,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2004,14 +2064,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2021,11 +2081,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>24</v>
@@ -2037,28 +2097,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2070,14 +2130,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2087,11 +2147,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>24</v>
@@ -2103,31 +2163,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2136,14 +2196,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2153,14 +2213,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2169,14 +2229,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2186,14 +2246,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2202,14 +2262,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2219,11 +2279,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>24</v>
@@ -2242,7 +2302,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2275,7 +2335,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2292,7 +2352,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2308,7 +2368,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2341,7 +2401,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2355,7 +2415,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>24</v>
@@ -2367,14 +2427,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2384,14 +2444,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2407,7 +2467,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2440,7 +2500,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2473,7 +2533,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2483,14 +2543,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2499,14 +2559,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2516,11 +2576,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>24</v>
@@ -2532,14 +2592,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2549,7 +2609,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2572,24 +2632,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2598,28 +2658,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2631,31 +2691,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2664,31 +2724,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2704,13 +2764,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2721,7 +2781,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2737,24 +2797,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2763,28 +2823,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2796,31 +2856,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2829,31 +2889,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2862,66 +2922,363 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2395.5300000000002</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>180</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>32</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>110</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>181</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>183</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>32</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>110</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>184</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>186</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>106</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>110</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>72</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>187</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>155</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>110</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>178</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>179</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>180</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c t="s" r="Q62" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>188</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>32</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>110</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>167</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>190</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>97</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>110</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>88</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>192</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>193</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>110</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>194</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>195</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>196</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>110</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>171</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>197</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>196</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>110</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>62</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>2898.5300000000002</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>198</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>199</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>200</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3190,10 +3547,55 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>280.0000</t>
   </si>
   <si>
+    <t>CEREBROFORTE 20% SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -389,6 +398,9 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -605,7 +617,16 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 6:30 PM</t>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>560.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 17 September, 2025 6:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1444,7 +1465,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1454,11 +1475,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1470,14 +1491,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1487,14 +1508,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1503,14 +1524,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1520,11 +1541,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>24</v>
@@ -1536,14 +1557,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1576,7 +1597,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1586,14 +1607,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1602,14 +1623,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1619,14 +1640,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1642,7 +1663,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1652,14 +1673,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1675,7 +1696,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1692,7 +1713,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1708,7 +1729,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1718,11 +1739,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>24</v>
@@ -1734,14 +1755,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1774,7 +1795,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1791,7 +1812,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1807,7 +1828,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1840,7 +1861,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1850,14 +1871,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1866,14 +1887,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1890,7 +1911,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1906,7 +1927,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1916,11 +1937,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>24</v>
@@ -1932,14 +1953,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1949,14 +1970,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1965,14 +1986,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1989,7 +2010,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2005,7 +2026,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2022,7 +2043,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2038,7 +2059,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2048,14 +2069,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2071,7 +2092,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2081,14 +2102,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2104,7 +2125,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2121,7 +2142,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2137,7 +2158,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2147,14 +2168,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2163,31 +2184,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2196,31 +2217,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2229,14 +2250,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2253,7 +2274,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2269,7 +2290,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2286,7 +2307,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2319,7 +2340,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2335,7 +2356,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2368,7 +2389,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,14 +2399,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2394,14 +2415,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2411,14 +2432,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2427,14 +2448,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2444,14 +2465,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2460,14 +2481,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2477,11 +2498,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>24</v>
@@ -2493,14 +2514,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2510,14 +2531,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2526,7 +2547,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2543,11 +2564,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>24</v>
@@ -2559,14 +2580,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2576,11 +2597,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>24</v>
@@ -2592,14 +2613,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,11 +2630,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>24</v>
@@ -2625,14 +2646,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,11 +2663,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>24</v>
@@ -2658,14 +2679,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2675,14 +2696,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2691,14 +2712,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2708,11 +2729,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>24</v>
@@ -2724,14 +2745,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,14 +2762,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2757,31 +2778,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2790,31 +2811,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2823,28 +2844,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2856,20 +2877,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2877,10 +2898,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2889,28 +2910,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2922,31 +2943,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2955,31 +2976,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2988,31 +3009,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3021,31 +3042,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3061,24 +3082,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3087,31 +3108,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3120,31 +3141,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3160,24 +3181,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3186,31 +3207,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3219,66 +3240,132 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>2898.5300000000002</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>198</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>199</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
         <v>200</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>113</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>175</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>201</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>202</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>113</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>65</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3585.5300000000002</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>205</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>206</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>207</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3592,10 +3679,20 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -626,7 +626,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 6:54 PM</t>
+    <t>Wednesday, 17 September, 2025 6:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -188,10 +188,10 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>0.0000</t>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>11.8800</t>
   </si>
   <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
@@ -503,6 +503,9 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -563,6 +566,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>زيت حرير 100مل</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -578,9 +590,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
@@ -626,7 +635,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 6:55 PM</t>
+    <t>Wednesday, 17 September, 2025 7:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1680,7 +1689,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2818,7 +2827,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2828,11 +2837,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>24</v>
@@ -2844,31 +2853,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2877,14 +2886,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2894,11 +2903,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2910,14 +2919,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2927,11 +2936,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2960,14 +2969,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2976,14 +2985,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2993,14 +3002,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3016,7 +3025,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3026,11 +3035,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3042,14 +3051,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3059,14 +3068,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>109</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3075,7 +3084,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3092,14 +3101,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3108,14 +3117,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3125,14 +3134,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3148,7 +3157,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3158,14 +3167,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3174,14 +3183,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3191,14 +3200,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3214,7 +3223,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3240,14 +3249,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3257,14 +3266,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3273,14 +3282,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3290,14 +3299,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3306,14 +3315,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3323,49 +3332,115 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>202</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
         <v>203</v>
       </c>
-      <c t="s" r="Q69" s="12">
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>113</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>176</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>204</v>
       </c>
-    </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3585.5300000000002</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
         <v>205</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>113</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>65</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
         <v>206</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c t="s" r="Q71" s="12">
         <v>207</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3667.2399999999998</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>208</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>209</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>210</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3689,10 +3764,20 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALFACALCIDOL 2MCG/ML ORAL DPS. 10 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
@@ -203,6 +212,9 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -413,9 +425,6 @@
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
-    <t>86.00</t>
-  </si>
-  <si>
     <t>43.0000</t>
   </si>
   <si>
@@ -434,6 +443,15 @@
     <t>19.5000</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -485,6 +503,12 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -521,18 +545,21 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>بامبرز رقم 2</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>330.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
     <t>24:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جلسرين اوبال </t>
   </si>
   <si>
@@ -635,7 +662,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 7:21 PM</t>
+    <t>Wednesday, 17 September, 2025 7:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1293,7 +1320,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1302,14 +1329,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1319,14 +1346,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1335,14 +1362,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1352,14 +1379,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1385,14 +1412,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>27</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1408,7 +1435,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1425,7 +1452,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1441,7 +1468,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1451,14 +1478,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1467,14 +1494,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1491,7 +1518,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1507,7 +1534,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1517,14 +1544,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1533,14 +1560,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1550,14 +1577,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1566,14 +1593,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1583,14 +1610,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1599,14 +1626,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1623,7 +1650,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1639,7 +1666,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1649,14 +1676,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1665,14 +1692,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1682,14 +1709,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>60</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1705,7 +1732,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1715,14 +1742,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1738,7 +1765,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1755,7 +1782,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1771,7 +1798,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1781,14 +1808,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1797,14 +1824,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1814,14 +1841,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1830,14 +1857,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1847,14 +1874,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1863,14 +1890,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1880,14 +1907,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1896,14 +1923,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1913,14 +1940,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1929,14 +1956,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1946,14 +1973,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1962,14 +1989,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1979,14 +2006,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1995,14 +2022,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2012,14 +2039,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2028,14 +2055,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2045,14 +2072,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2061,14 +2088,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2078,14 +2105,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2094,14 +2121,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2111,14 +2138,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2127,14 +2154,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2144,14 +2171,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2160,14 +2187,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2177,14 +2204,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2193,14 +2220,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2210,14 +2237,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2226,31 +2253,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2259,14 +2286,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2276,14 +2303,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2292,31 +2319,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2325,14 +2352,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2342,14 +2369,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2358,14 +2385,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2375,14 +2402,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2391,14 +2418,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2408,14 +2435,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2431,7 +2458,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2448,7 +2475,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2464,7 +2491,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2474,14 +2501,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2490,14 +2517,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2507,14 +2534,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2523,14 +2550,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2540,14 +2567,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2556,14 +2583,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2573,14 +2600,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2589,14 +2616,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2606,14 +2633,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2622,14 +2649,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2639,14 +2666,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2655,14 +2682,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2679,7 +2706,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2688,14 +2715,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2705,14 +2732,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2721,14 +2748,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2738,14 +2765,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2754,14 +2781,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2771,14 +2798,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>27</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2787,14 +2814,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2804,14 +2831,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2820,14 +2847,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2837,14 +2864,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2853,14 +2880,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2870,14 +2897,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2886,31 +2913,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2919,31 +2946,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2952,31 +2979,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2985,31 +3012,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3018,20 +3045,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3042,7 +3069,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3051,31 +3078,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3084,31 +3111,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3117,31 +3144,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3150,31 +3177,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>109</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3183,31 +3210,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3216,31 +3243,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3249,31 +3276,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3289,24 +3316,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>43</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3315,20 +3342,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3336,10 +3363,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3355,24 +3382,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3381,66 +3408,231 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>204</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>35</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>117</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>145</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>206</v>
       </c>
-      <c t="s" r="Q71" s="12">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>104</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>117</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>95</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
         <v>207</v>
       </c>
-    </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3667.2399999999998</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
+      <c t="s" r="Q73" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>208</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
         <v>209</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>117</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
         <v>210</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>211</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>212</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>117</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>185</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>213</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>214</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>117</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>69</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>4152.2399999999998</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>217</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>218</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>219</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3774,10 +3966,35 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -530,6 +530,9 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -608,9 +611,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -662,7 +662,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 7:25 PM</t>
+    <t>Wednesday, 17 September, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2986,7 +2986,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3000,10 +3000,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3062,11 +3062,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3095,11 +3095,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3111,14 +3111,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3144,14 +3144,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3161,11 +3161,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3177,14 +3177,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3227,11 +3227,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3243,14 +3243,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3260,11 +3260,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3293,11 +3293,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3326,14 +3326,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3425,11 +3425,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3557,11 +3557,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="77" ht="25.5" customHeight="1">
       <c r="P77" s="13">
-        <v>4152.2399999999998</v>
+        <v>4171.0699999999997</v>
       </c>
       <c r="Q77" s="13"/>
     </row>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -104,21 +104,27 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
-    <t>210.00</t>
-  </si>
-  <si>
     <t>105.0000</t>
   </si>
   <si>
     <t>BLINK INTENSIVE TEARS EYE DROPS 10 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>280.00</t>
   </si>
   <si>
@@ -158,6 +164,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
@@ -245,6 +263,15 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>DROSPADIOL 0.03/3MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
   </si>
   <si>
@@ -290,6 +317,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -335,9 +374,6 @@
     <t>144.00</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
     <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
   </si>
   <si>
@@ -401,6 +437,21 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>LIPANTHYL 300MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>MAREVAN 5MG 102 TAB.</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -503,6 +554,21 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>TENSOPLERON 25MG 30 F.C TAB</t>
+  </si>
+  <si>
+    <t>153.00</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -632,9 +698,6 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>مسك الرمان</t>
   </si>
   <si>
@@ -662,7 +725,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 7:43 PM</t>
+    <t>Wednesday, 17 September, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1468,7 +1531,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1478,14 +1541,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1494,14 +1557,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1511,14 +1574,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1527,14 +1590,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1544,11 +1607,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1560,14 +1623,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1577,11 +1640,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1593,14 +1656,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1610,14 +1673,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1626,14 +1689,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1643,11 +1706,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>27</v>
@@ -1659,14 +1722,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1676,14 +1739,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1692,14 +1755,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1709,14 +1772,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1725,14 +1788,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1742,11 +1805,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>27</v>
@@ -1758,14 +1821,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1775,14 +1838,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1798,7 +1861,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1808,11 +1871,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>27</v>
@@ -1824,14 +1887,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1841,14 +1904,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1857,14 +1920,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1874,11 +1937,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>27</v>
@@ -1890,14 +1953,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1907,11 +1970,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>27</v>
@@ -1923,14 +1986,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1947,7 +2010,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1980,7 +2043,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1996,7 +2059,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2006,14 +2069,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2022,14 +2085,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2039,14 +2102,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2055,14 +2118,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2072,14 +2135,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2112,7 +2175,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2145,7 +2208,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2161,7 +2224,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2171,11 +2234,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>27</v>
@@ -2187,14 +2250,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2204,11 +2267,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2227,7 +2290,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2237,14 +2300,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2253,7 +2316,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2270,11 +2333,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2286,14 +2349,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2326,13 +2389,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2340,7 +2403,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2352,14 +2415,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2369,11 +2432,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>27</v>
@@ -2385,14 +2448,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2402,11 +2465,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2418,14 +2481,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2435,11 +2498,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>27</v>
@@ -2451,28 +2514,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2484,14 +2547,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2501,14 +2564,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2517,14 +2580,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2534,11 +2597,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2550,14 +2613,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2567,11 +2630,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>27</v>
@@ -2583,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2600,14 +2663,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2616,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2633,11 +2696,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2649,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2666,11 +2729,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2682,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2706,7 +2769,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2715,14 +2778,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2732,14 +2795,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2748,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2765,7 +2828,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2788,7 +2851,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2798,11 +2861,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>27</v>
@@ -2821,7 +2884,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2838,7 +2901,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2854,7 +2917,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2871,7 +2934,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2887,7 +2950,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2901,7 +2964,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>27</v>
@@ -2913,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2930,14 +2993,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2946,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2963,11 +3026,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>27</v>
@@ -2979,14 +3042,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2996,14 +3059,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3012,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3029,11 +3092,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -3045,31 +3108,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3078,28 +3141,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3111,28 +3174,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3144,31 +3207,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3190,18 +3253,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3217,24 +3280,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3243,31 +3306,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3276,31 +3339,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3316,13 +3379,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3330,10 +3393,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3342,31 +3405,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3375,28 +3438,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3408,28 +3471,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3441,31 +3504,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3474,31 +3537,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>95</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3507,28 +3570,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3540,28 +3603,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3573,66 +3636,330 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>222</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>32</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>129</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>223</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>224</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>125</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>129</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>88</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>225</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>189</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>129</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
         <v>215</v>
       </c>
-      <c t="s" r="Q76" s="12">
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
         <v>216</v>
       </c>
-    </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>4171.0699999999997</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>217</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>218</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
-        <v>219</v>
-      </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>226</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>32</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>129</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>162</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>228</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>117</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>129</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>108</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>229</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>230</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>129</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>231</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>232</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>233</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>129</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>208</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>234</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>235</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>129</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>75</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>5044.0699999999997</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>238</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>239</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>240</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3991,10 +4318,50 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>280.0000</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CEREBROFORTE 20% SYRUP 120ML</t>
   </si>
   <si>
@@ -284,18 +296,12 @@
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>99.00</t>
-  </si>
-  <si>
     <t>99.0000</t>
   </si>
   <si>
     <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>275.00</t>
   </si>
   <si>
@@ -386,156 +392,168 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 250MG 14 TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
+    <t>LANTOPEP 60 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>LIPANTHYL 300MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>MAREVAN 5MG 102 TAB.</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 250MG 14 TAB</t>
-  </si>
-  <si>
-    <t>112.00</t>
-  </si>
-  <si>
-    <t>112.0000</t>
-  </si>
-  <si>
-    <t>LANTOPEP 60 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>LIPANTHYL 300MG 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>MAREVAN 5MG 102 TAB.</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>19.5000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>ROWACHOL 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
     <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
   </si>
   <si>
@@ -584,13 +602,13 @@
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
-    <t>3:5</t>
+    <t>3:4</t>
   </si>
   <si>
     <t>90.00</t>
   </si>
   <si>
-    <t>14.4000</t>
+    <t>28.8000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -644,7 +662,10 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>42:0</t>
+    <t>41:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
   </si>
   <si>
     <t>حلاوة حرير</t>
@@ -692,21 +713,21 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>مسك الرمان</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t>30.0000</t>
   </si>
   <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>مسك الرمان</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
@@ -725,7 +746,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 7:56 PM</t>
+    <t>Wednesday, 17 September, 2025 8:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1630,7 +1651,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1640,14 +1661,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1656,14 +1677,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1713,7 +1734,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1746,7 +1767,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1779,7 +1800,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1795,7 +1816,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1805,11 +1826,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>27</v>
@@ -1821,14 +1842,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1845,7 +1866,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1854,14 +1875,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1871,14 +1892,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1887,14 +1908,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1904,14 +1925,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1920,14 +1941,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1937,14 +1958,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1953,7 +1974,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1970,11 +1991,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>27</v>
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2026,7 +2047,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2036,11 +2057,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>27</v>
@@ -2052,7 +2073,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2069,14 +2090,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2085,14 +2106,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2102,11 +2123,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2118,14 +2139,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2135,11 +2156,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2151,14 +2172,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2168,14 +2189,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2184,14 +2205,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2201,14 +2222,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2217,14 +2238,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2234,7 +2255,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2257,7 +2278,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2267,14 +2288,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2283,14 +2304,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2300,14 +2321,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2316,14 +2337,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2333,14 +2354,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2349,14 +2370,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2366,14 +2387,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2382,14 +2403,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,14 +2420,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2415,14 +2436,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2436,10 +2457,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2455,7 +2476,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2469,10 +2490,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2481,14 +2502,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2498,14 +2519,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2514,31 +2535,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2547,31 +2568,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,14 +2601,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2597,14 +2618,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2613,14 +2634,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,14 +2651,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2646,14 +2667,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,11 +2684,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2679,7 +2700,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2696,7 +2717,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2719,7 +2740,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,11 +2750,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2745,14 +2766,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2762,11 +2783,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2778,14 +2799,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,11 +2816,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2811,14 +2832,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2849,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2851,7 +2872,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,11 +2882,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>27</v>
@@ -2884,7 +2905,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2917,7 +2938,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2950,7 +2971,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2967,7 +2988,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2983,7 +3004,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3016,7 +3037,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3049,7 +3070,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,14 +3080,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3075,14 +3096,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,11 +3113,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -3108,14 +3129,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,11 +3146,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>27</v>
@@ -3165,7 +3186,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3181,13 +3202,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3195,10 +3216,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3207,14 +3228,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,14 +3245,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3240,28 +3261,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3273,14 +3294,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,11 +3311,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>27</v>
@@ -3323,14 +3344,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3346,7 +3367,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,14 +3377,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,31 +3393,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3405,31 +3426,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3445,21 +3466,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3471,20 +3492,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3517,18 +3538,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3544,21 +3565,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3570,31 +3591,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3603,28 +3624,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3643,24 +3664,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,7 +3690,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3682,18 +3703,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3702,31 +3723,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,31 +3756,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3768,31 +3789,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3801,31 +3822,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3834,31 +3855,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3867,31 +3888,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>209</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3900,66 +3921,132 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>237</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>5044.0699999999997</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>238</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>239</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
         <v>240</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>131</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>214</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>241</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>242</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>131</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>79</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>5391.21</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>245</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>246</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>247</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4358,10 +4445,20 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -746,7 +746,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 8:10 PM</t>
+    <t>Wednesday, 17 September, 2025 8:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -143,6 +143,21 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CEREBROFORTE 20% SYRUP 120ML</t>
   </si>
   <si>
@@ -167,9 +182,6 @@
     <t>CLEAREST 14 CAPS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -188,6 +200,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
@@ -266,6 +290,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -551,9 +584,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
   </si>
   <si>
@@ -623,6 +653,18 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8250:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -644,7 +686,10 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>24:0</t>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>30.0000</t>
   </si>
   <si>
     <t xml:space="preserve">جلسرين اوبال </t>
@@ -695,15 +740,15 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
@@ -725,15 +770,9 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
@@ -746,7 +785,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 8:13 PM</t>
+    <t>Wednesday, 17 September, 2025 8:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1684,7 +1723,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1694,14 +1733,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1710,14 +1749,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1727,11 +1766,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1743,14 +1782,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1760,14 +1799,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1776,14 +1815,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1800,7 +1839,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1833,7 +1872,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1849,7 +1888,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1859,14 +1898,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1875,14 +1914,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1892,14 +1931,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1915,7 +1954,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1925,7 +1964,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1948,7 +1987,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1958,14 +1997,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1974,14 +2013,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1991,11 +2030,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>27</v>
@@ -2007,14 +2046,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2024,14 +2063,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2040,14 +2079,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2057,11 +2096,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>27</v>
@@ -2073,14 +2112,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2090,11 +2129,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>27</v>
@@ -2106,14 +2145,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2123,14 +2162,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2139,14 +2178,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2156,14 +2195,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2172,7 +2211,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2189,14 +2228,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2205,14 +2244,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2222,14 +2261,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2238,14 +2277,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2255,14 +2294,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2271,14 +2310,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2288,14 +2327,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2304,14 +2343,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2321,14 +2360,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2337,14 +2376,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2354,14 +2393,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2370,14 +2409,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2387,14 +2426,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2410,7 +2449,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2420,14 +2459,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2436,14 +2475,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2453,14 +2492,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2469,14 +2508,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2486,14 +2525,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2502,14 +2541,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2519,14 +2558,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2535,14 +2574,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2552,14 +2591,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2568,31 +2607,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2608,7 +2647,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2618,14 +2657,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2634,14 +2673,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2651,14 +2690,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>140</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2674,21 +2713,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2700,14 +2739,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2717,14 +2756,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2733,7 +2772,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2750,11 +2789,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2766,14 +2805,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2783,11 +2822,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2799,7 +2838,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2816,11 +2855,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2832,14 +2871,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2849,11 +2888,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2865,14 +2904,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2882,14 +2921,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2898,14 +2937,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2915,11 +2954,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2931,14 +2970,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2948,11 +2987,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2964,14 +3003,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2981,14 +3020,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2997,14 +3036,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3014,14 +3053,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3030,14 +3069,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3047,14 +3086,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3063,14 +3102,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3080,14 +3119,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3096,14 +3135,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3113,11 +3152,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -3129,14 +3168,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3146,11 +3185,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>27</v>
@@ -3162,14 +3201,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3179,14 +3218,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3195,14 +3234,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3216,7 +3255,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>27</v>
@@ -3228,14 +3267,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3245,14 +3284,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3261,31 +3300,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3294,14 +3333,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3311,11 +3350,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>27</v>
@@ -3327,14 +3366,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3344,11 +3383,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3360,31 +3399,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3393,14 +3432,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,14 +3449,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3426,14 +3465,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3443,14 +3482,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3459,31 +3498,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3492,31 +3531,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3525,31 +3564,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3558,31 +3597,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3591,31 +3630,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3624,28 +3663,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3657,31 +3696,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3690,28 +3729,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3723,31 +3762,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>119</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3756,31 +3795,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3789,28 +3828,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>92</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3822,28 +3861,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3855,7 +3894,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3868,18 +3907,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3888,31 +3927,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>110</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3921,28 +3960,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3954,28 +3993,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -3987,66 +4026,198 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>244</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>5391.21</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>245</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>246</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>247</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>249</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>94</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>142</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>121</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>250</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>251</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>142</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>252</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>253</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>45</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>142</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>229</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>254</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>255</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>142</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>87</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>5596.21</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>258</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>259</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>260</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4455,10 +4626,30 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -785,7 +785,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 8:14 PM</t>
+    <t>Wednesday, 17 September, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -785,7 +785,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 8:18 PM</t>
+    <t>Wednesday, 17 September, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -218,9 +230,6 @@
     <t>0:2</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -248,6 +257,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -422,6 +443,12 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -668,12 +695,6 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>بامبرز رقم 2</t>
   </si>
   <si>
@@ -740,15 +761,15 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>14.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
@@ -785,7 +806,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 8:20 PM</t>
+    <t>Wednesday, 17 September, 2025 8:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1558,7 +1579,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1568,11 +1589,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>27</v>
@@ -1584,14 +1605,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1608,7 +1629,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1624,7 +1645,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1634,14 +1655,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1650,14 +1671,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1667,14 +1688,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1683,14 +1704,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1707,7 +1728,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1740,7 +1761,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1749,14 +1770,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1773,7 +1794,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1782,14 +1803,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1822,7 +1843,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1832,14 +1853,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1848,14 +1869,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1872,7 +1893,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1938,7 +1959,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1954,7 +1975,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1964,7 +1985,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1987,7 +2008,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1997,14 +2018,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2013,14 +2034,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2030,14 +2051,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>81</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2053,7 +2074,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2063,11 +2084,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2079,14 +2100,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2096,11 +2117,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>27</v>
@@ -2112,14 +2133,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2129,14 +2150,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2145,14 +2166,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2162,11 +2183,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>27</v>
@@ -2185,7 +2206,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2195,7 +2216,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2218,7 +2239,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2228,11 +2249,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>27</v>
@@ -2244,14 +2265,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2261,14 +2282,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2277,14 +2298,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2294,14 +2315,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2310,7 +2331,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2327,11 +2348,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2343,14 +2364,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2360,14 +2381,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2376,7 +2397,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2393,14 +2414,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2409,14 +2430,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2426,14 +2447,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2442,14 +2463,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2459,14 +2480,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2475,14 +2496,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2492,14 +2513,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2508,14 +2529,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2548,7 +2569,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2558,14 +2579,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2574,14 +2595,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2595,7 +2616,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2607,14 +2628,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2624,11 +2645,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>27</v>
@@ -2640,14 +2661,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2657,11 +2678,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2673,14 +2694,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2690,14 +2711,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>140</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2713,21 +2734,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2739,14 +2760,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2756,14 +2777,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2772,14 +2793,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2789,14 +2810,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2805,28 +2826,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2838,14 +2859,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2862,7 +2883,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2878,7 +2899,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2888,11 +2909,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2904,14 +2925,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2921,11 +2942,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2937,14 +2958,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2954,11 +2975,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2970,14 +2991,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2987,11 +3008,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3003,14 +3024,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3020,14 +3041,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3036,14 +3057,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3069,14 +3090,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3086,11 +3107,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3102,14 +3123,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3119,14 +3140,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3142,7 +3163,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3159,7 +3180,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3175,7 +3196,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3192,7 +3213,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3208,7 +3229,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3225,7 +3246,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3241,7 +3262,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3251,7 +3272,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3274,7 +3295,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3284,11 +3305,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>27</v>
@@ -3300,14 +3321,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3317,14 +3338,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3333,14 +3354,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3350,11 +3371,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>27</v>
@@ -3366,14 +3387,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3383,14 +3404,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3406,13 +3427,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3420,10 +3441,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3432,14 +3453,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3449,11 +3470,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3465,14 +3486,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3482,11 +3503,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3498,31 +3519,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3531,14 +3552,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3548,14 +3569,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3564,14 +3585,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3581,14 +3602,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3597,14 +3618,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3614,14 +3635,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3630,31 +3651,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3670,24 +3691,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>18</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3696,31 +3717,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3736,21 +3757,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3762,20 +3783,20 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3783,10 +3804,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3795,31 +3816,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>53</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3828,28 +3849,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3861,31 +3882,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3894,31 +3915,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3927,20 +3948,20 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3951,7 +3972,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>205</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3967,21 +3988,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3993,31 +4014,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4026,31 +4047,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>176</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4059,31 +4080,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4092,28 +4113,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4125,31 +4146,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4158,66 +4179,165 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>101</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q90" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>257</v>
       </c>
-    </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>5596.21</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
         <v>258</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>151</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
         <v>259</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>260</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>49</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>151</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>236</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>261</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>262</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>151</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>94</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>5685.6899999999996</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>265</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>266</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>267</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4646,10 +4766,25 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -431,9 +440,6 @@
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
-    <t>144.00</t>
-  </si>
-  <si>
     <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
   </si>
   <si>
@@ -503,6 +509,9 @@
     <t>140.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>LIPANTHYL 300MG 30 CAPSULES</t>
   </si>
   <si>
@@ -527,6 +536,18 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
   </si>
   <si>
@@ -806,7 +827,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 8:21 PM</t>
+    <t>Wednesday, 17 September, 2025 8:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2074,7 +2095,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2084,11 +2105,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2100,14 +2121,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2117,14 +2138,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2140,7 +2161,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2150,14 +2171,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2173,7 +2194,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2183,14 +2204,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2199,7 +2220,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2216,11 +2237,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>27</v>
@@ -2239,7 +2260,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2249,11 +2270,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>27</v>
@@ -2265,14 +2286,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2282,7 +2303,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2305,7 +2326,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2315,7 +2336,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2355,7 +2376,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2371,7 +2392,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2404,7 +2425,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2414,11 +2435,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2430,14 +2451,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2447,14 +2468,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2470,7 +2491,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2487,7 +2508,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2503,7 +2524,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2513,11 +2534,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>27</v>
@@ -2529,14 +2550,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2546,14 +2567,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2562,14 +2583,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2579,14 +2600,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2595,14 +2616,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2619,7 +2640,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2635,7 +2656,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2652,7 +2673,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2668,7 +2689,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2678,14 +2699,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2701,7 +2722,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2711,14 +2732,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2727,14 +2748,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2744,14 +2765,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2760,14 +2781,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2777,7 +2798,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2800,7 +2821,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2810,14 +2831,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>149</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2826,31 +2847,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2859,31 +2880,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2892,14 +2913,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2909,14 +2930,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2925,14 +2946,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2942,11 +2963,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2958,14 +2979,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2975,11 +2996,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2991,14 +3012,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3008,14 +3029,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3024,14 +3045,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3041,11 +3062,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3057,7 +3078,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3074,7 +3095,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3090,14 +3111,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3107,11 +3128,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3123,14 +3144,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3140,11 +3161,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>27</v>
@@ -3156,14 +3177,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3173,11 +3194,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3189,14 +3210,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3206,11 +3227,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3222,14 +3243,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3239,14 +3260,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3255,14 +3276,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3272,14 +3293,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3288,14 +3309,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3305,14 +3326,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3321,14 +3342,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3338,14 +3359,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3354,14 +3375,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3371,11 +3392,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>27</v>
@@ -3387,14 +3408,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3404,11 +3425,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>27</v>
@@ -3427,7 +3448,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3444,7 +3465,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3460,7 +3481,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3470,7 +3491,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3493,7 +3514,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,14 +3524,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3519,31 +3540,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3552,14 +3573,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3569,11 +3590,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>27</v>
@@ -3592,7 +3613,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3602,11 +3623,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3618,20 +3639,20 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3639,10 +3660,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3651,14 +3672,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,14 +3689,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3684,14 +3705,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3701,14 +3722,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3717,14 +3738,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3734,14 +3755,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3750,31 +3771,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3790,24 +3811,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3816,24 +3837,24 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3856,21 +3877,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3882,20 +3903,20 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3903,10 +3924,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3915,31 +3936,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3948,28 +3969,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3981,31 +4002,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>36</v>
+        <v>246</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4014,31 +4035,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>235</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4047,31 +4068,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>70</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4087,21 +4108,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4113,31 +4134,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>214</v>
+        <v>36</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4146,7 +4167,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4159,18 +4180,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4179,31 +4200,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4212,28 +4233,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4245,31 +4266,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4278,66 +4299,165 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>104</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q93" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>264</v>
       </c>
-    </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>5685.6899999999996</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
         <v>265</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>153</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
         <v>266</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>267</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>49</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>153</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>243</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>268</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>269</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>153</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>97</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5872.5299999999997</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>272</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>273</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>274</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4781,10 +4901,25 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -827,7 +827,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 8:26 PM</t>
+    <t>Wednesday, 17 September, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -827,7 +827,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 8:28 PM</t>
+    <t>Wednesday, 17 September, 2025 8:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -401,13 +401,16 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>5:6</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>7.9200</t>
+    <t>11.7600</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
@@ -464,9 +467,6 @@
     <t>53.4600</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
@@ -632,6 +632,12 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
   </si>
   <si>
@@ -782,7 +788,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -800,6 +809,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -822,9 +834,6 @@
   </si>
   <si>
     <t>560.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
   </si>
   <si>
     <t>Wednesday, 17 September, 2025 8:51 PM</t>
@@ -2640,7 +2649,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>72</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2649,7 +2658,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2666,11 +2675,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2682,7 +2691,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2699,11 +2708,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>27</v>
@@ -2715,14 +2724,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2732,7 +2741,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2748,7 +2757,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2781,7 +2790,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2798,11 +2807,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2814,14 +2823,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2835,7 +2844,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2847,7 +2856,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2864,14 +2873,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3547,7 +3556,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3557,11 +3566,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>27</v>
@@ -3573,14 +3582,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3590,11 +3599,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>27</v>
@@ -3606,14 +3615,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3623,14 +3632,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3639,28 +3648,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3679,13 +3688,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3693,10 +3702,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3712,7 +3721,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3722,14 +3731,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3755,14 +3764,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3771,14 +3780,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3788,11 +3797,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>26</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>72</v>
@@ -3811,7 +3820,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3821,14 +3830,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3844,7 +3853,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3854,14 +3863,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3870,31 +3879,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3903,14 +3912,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3920,11 +3929,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3936,14 +3945,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3953,14 +3962,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3969,14 +3978,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3986,14 +3995,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4002,14 +4011,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4019,14 +4028,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4035,14 +4044,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>57</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4052,14 +4061,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4068,14 +4077,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4085,11 +4094,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4101,14 +4110,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4118,11 +4127,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4134,7 +4143,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4151,14 +4160,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>242</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4184,14 +4193,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>68</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4200,14 +4209,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4217,14 +4226,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4233,14 +4242,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4250,11 +4259,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>113</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4266,14 +4275,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4283,14 +4292,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4299,14 +4308,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4316,14 +4325,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4332,14 +4341,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4349,14 +4358,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>240</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4365,14 +4374,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4382,11 +4391,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4398,14 +4407,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>49</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4415,49 +4424,82 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>271</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5872.5299999999997</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>272</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
         <v>273</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>153</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>97</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>274</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c t="s" r="Q97" s="12">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>5906.2399999999998</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>275</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>276</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>277</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4916,10 +4958,15 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -86,13 +86,34 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
     <t>33.6600</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>ANALLERGE 4 MG 60 TAB.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>9.9000</t>
   </si>
   <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
@@ -167,9 +188,6 @@
     <t>106.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CEREBROFORTE 20% SYRUP 120ML</t>
   </si>
   <si>
@@ -341,9 +359,6 @@
     <t>DROSPADIOL 0.03/3MG 21 F.C.TAB.</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
     <t>87.0000</t>
   </si>
   <si>
@@ -761,6 +776,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -797,9 +821,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
@@ -821,9 +842,6 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
@@ -836,7 +854,7 @@
     <t>560.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 8:51 PM</t>
+    <t>Wednesday, 17 September, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1576,7 +1594,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1586,14 +1604,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1602,14 +1620,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1619,14 +1637,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1642,7 +1660,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1659,7 +1677,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1692,7 +1710,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1708,7 +1726,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1718,14 +1736,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1734,14 +1752,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1751,11 +1769,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1767,14 +1785,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1784,14 +1802,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1807,7 +1825,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1817,14 +1835,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1833,14 +1851,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1850,14 +1868,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1866,14 +1884,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1883,14 +1901,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1899,14 +1917,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1916,14 +1934,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1932,14 +1950,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1949,11 +1967,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1965,14 +1983,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1982,14 +2000,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1998,14 +2016,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2015,14 +2033,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2031,14 +2049,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2055,7 +2073,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2081,14 +2099,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2097,14 +2115,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2114,14 +2132,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2130,14 +2148,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2147,14 +2165,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2163,14 +2181,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2180,14 +2198,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2196,14 +2214,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2236,7 +2254,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2246,14 +2264,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2262,14 +2280,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2279,14 +2297,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2295,14 +2313,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2312,14 +2330,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2328,14 +2346,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2345,14 +2363,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2361,14 +2379,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2385,7 +2403,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2401,7 +2419,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2411,14 +2429,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2434,7 +2452,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2451,7 +2469,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2477,7 +2495,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2500,7 +2518,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2517,7 +2535,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2543,14 +2561,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2559,14 +2577,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2576,14 +2594,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2599,7 +2617,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2609,14 +2627,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2625,14 +2643,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2642,14 +2660,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>133</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2658,14 +2676,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2675,11 +2693,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2691,14 +2709,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2708,14 +2726,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2724,14 +2742,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2741,11 +2759,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2757,14 +2775,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2774,14 +2792,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2790,14 +2808,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2807,11 +2825,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2823,14 +2841,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2840,14 +2858,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2863,7 +2881,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2880,7 +2898,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2896,21 +2914,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2922,14 +2940,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2939,14 +2957,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2955,28 +2973,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2988,14 +3006,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3005,14 +3023,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3021,14 +3039,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3038,14 +3056,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3054,14 +3072,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3071,11 +3089,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3087,14 +3105,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3104,14 +3122,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3127,7 +3145,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3160,7 +3178,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3170,14 +3188,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3186,14 +3204,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3203,11 +3221,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3226,7 +3244,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3236,14 +3254,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3252,14 +3270,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3269,14 +3287,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3292,7 +3310,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3325,7 +3343,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3335,14 +3353,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3351,14 +3369,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3368,11 +3386,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3384,14 +3402,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3401,14 +3419,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3417,14 +3435,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3434,14 +3452,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3450,14 +3468,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3467,14 +3485,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3483,14 +3501,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3500,14 +3518,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3516,14 +3534,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3533,14 +3551,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3549,14 +3567,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3566,14 +3584,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3582,14 +3600,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3599,14 +3617,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3622,7 +3640,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3632,14 +3650,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3648,14 +3666,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3665,14 +3683,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3681,31 +3699,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3721,7 +3739,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3735,10 +3753,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3747,28 +3765,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3780,14 +3798,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3801,10 +3819,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3813,14 +3831,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3830,14 +3848,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3846,14 +3864,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3863,14 +3881,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3879,14 +3897,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3896,14 +3914,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3912,31 +3930,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3952,24 +3970,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3978,31 +3996,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4011,28 +4029,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4044,31 +4062,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4077,28 +4095,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4110,31 +4128,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4150,13 +4168,13 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4167,7 +4185,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4183,24 +4201,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>260</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4209,31 +4227,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>36</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4249,21 +4267,21 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4275,31 +4293,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4308,31 +4326,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>141</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4341,31 +4359,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4374,28 +4392,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4407,31 +4425,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4440,66 +4458,165 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>260</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>5906.2399999999998</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>275</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
         <v>276</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>158</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>33</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>277</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>56</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>158</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>250</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>278</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>279</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>158</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>103</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5950.8500000000004</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>281</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>282</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>283</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4963,10 +5080,25 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -854,7 +854,7 @@
     <t>560.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 8:52 PM</t>
+    <t>Wednesday, 17 September, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -176,6 +176,18 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
   </si>
   <si>
@@ -224,9 +236,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -854,7 +863,7 @@
     <t>560.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 9:01 PM</t>
+    <t>Wednesday, 17 September, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1908,7 +1917,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1924,7 +1933,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1934,14 +1943,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1950,14 +1959,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1990,7 +1999,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2000,14 +2009,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2040,7 +2049,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2066,11 +2075,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2082,14 +2091,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2099,14 +2108,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2122,7 +2131,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2132,7 +2141,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2155,7 +2164,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2221,7 +2230,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2231,11 +2240,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2264,14 +2273,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2287,7 +2296,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2297,14 +2306,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2320,7 +2329,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2330,14 +2339,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2346,7 +2355,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2363,11 +2372,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>29</v>
@@ -2386,7 +2395,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2396,11 +2405,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>29</v>
@@ -2412,14 +2421,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2429,7 +2438,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2452,7 +2461,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2462,7 +2471,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2511,14 +2520,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2528,7 +2537,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2551,7 +2560,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2561,11 +2570,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2577,14 +2586,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2594,14 +2603,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2617,7 +2626,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2634,7 +2643,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2650,7 +2659,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2660,11 +2669,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2676,14 +2685,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2709,14 +2718,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2726,14 +2735,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2742,14 +2751,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2759,14 +2768,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>141</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2782,7 +2791,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2799,7 +2808,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2815,7 +2824,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2848,7 +2857,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2874,14 +2883,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2891,14 +2900,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2914,7 +2923,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2924,11 +2933,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2940,14 +2949,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2957,14 +2966,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2980,24 +2989,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3006,31 +3015,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3039,14 +3048,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3063,7 +3072,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3079,7 +3088,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3112,7 +3121,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3122,14 +3131,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3138,14 +3147,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3155,14 +3164,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3188,11 +3197,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3204,14 +3213,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3221,7 +3230,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3244,7 +3253,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3254,14 +3263,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3303,14 +3312,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3320,11 +3329,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3343,7 +3352,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3369,14 +3378,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3386,14 +3395,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3409,7 +3418,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3442,7 +3451,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3475,7 +3484,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3492,7 +3501,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3508,7 +3517,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3541,7 +3550,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3558,7 +3567,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>78</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3574,7 +3583,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3584,14 +3593,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3607,7 +3616,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3617,11 +3626,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>29</v>
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3650,11 +3659,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>29</v>
@@ -3666,14 +3675,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3683,7 +3692,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3706,7 +3715,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3739,7 +3748,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3756,7 +3765,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3772,13 +3781,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3786,7 +3795,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3798,31 +3807,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3831,14 +3840,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3848,14 +3857,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3864,14 +3873,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3881,14 +3890,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3897,14 +3906,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3914,14 +3923,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3930,14 +3939,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3947,14 +3956,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3963,14 +3972,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3980,14 +3989,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3996,31 +4005,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>106</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4029,28 +4038,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>96</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4069,24 +4078,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4108,18 +4117,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4128,31 +4137,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4168,24 +4177,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4201,24 +4210,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4227,28 +4236,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>67</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4260,20 +4269,20 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4306,18 +4315,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>268</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4339,18 +4348,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>74</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4359,31 +4368,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>118</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4392,28 +4401,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>121</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4425,31 +4434,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>146</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4458,31 +4467,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>72</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4491,31 +4500,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>113</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4524,28 +4533,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>56</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4557,66 +4566,99 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>60</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>268</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5950.8500000000004</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>281</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
         <v>282</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>161</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>106</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>283</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c t="s" r="Q101" s="12">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5958.7700000000004</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>284</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>285</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>286</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5095,10 +5137,15 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -695,6 +695,12 @@
     <t>153.00</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -839,9 +845,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>75.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -863,7 +866,7 @@
     <t>560.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 9:07 PM</t>
+    <t>Wednesday, 17 September, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3847,7 +3850,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3864,7 +3867,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3880,7 +3883,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3890,14 +3893,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3923,14 +3926,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3939,14 +3942,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3956,11 +3959,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>81</v>
@@ -3979,7 +3982,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3989,14 +3992,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4012,7 +4015,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4022,14 +4025,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4038,31 +4041,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4071,14 +4074,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4088,11 +4091,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>96</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4104,14 +4107,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4121,14 +4124,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4137,14 +4140,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4154,14 +4157,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4170,14 +4173,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4187,14 +4190,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4203,14 +4206,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4220,14 +4223,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4236,14 +4239,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4253,14 +4256,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4269,14 +4272,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>67</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4286,11 +4289,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4302,14 +4305,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4319,11 +4322,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4335,7 +4338,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4352,14 +4355,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>271</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4368,7 +4371,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4385,14 +4388,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4401,14 +4404,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4418,14 +4421,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>121</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4434,14 +4437,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>231</v>
+        <v>113</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4451,11 +4454,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>121</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4467,14 +4470,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4484,14 +4487,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>149</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4507,7 +4510,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4517,14 +4520,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4540,7 +4543,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>113</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4550,14 +4553,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4566,14 +4569,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4583,11 +4586,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4606,7 +4609,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>60</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4616,49 +4619,82 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>282</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
         <v>283</v>
       </c>
-      <c t="s" r="Q101" s="12">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5958.7700000000004</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>161</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>106</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>284</v>
       </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
+      <c t="s" r="Q102" s="12">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5996.7700000000004</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
         <v>285</v>
       </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
         <v>286</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>287</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5142,10 +5178,15 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -866,7 +866,7 @@
     <t>560.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 9:20 PM</t>
+    <t>Wednesday, 17 September, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -260,6 +260,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -410,6 +419,12 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>FARCOVIT B12 30 CAPS.</t>
   </si>
   <si>
@@ -494,9 +509,6 @@
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -866,7 +878,7 @@
     <t>560.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 9:23 PM</t>
+    <t>Wednesday, 17 September, 2025 9:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2184,7 +2196,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2200,7 +2212,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2210,14 +2222,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2226,14 +2238,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2243,14 +2255,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2266,7 +2278,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2276,11 +2288,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2292,14 +2304,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2309,14 +2321,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2332,7 +2344,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2342,14 +2354,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2365,7 +2377,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2375,14 +2387,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2391,7 +2403,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2408,11 +2420,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>29</v>
@@ -2431,7 +2443,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2441,11 +2453,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>29</v>
@@ -2457,14 +2469,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2474,7 +2486,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2497,7 +2509,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2507,7 +2519,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2540,14 +2552,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2556,14 +2568,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2573,7 +2585,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2596,7 +2608,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2606,11 +2618,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2622,14 +2634,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2639,14 +2651,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2662,7 +2674,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2679,7 +2691,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2695,7 +2707,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2705,11 +2717,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>29</v>
@@ -2721,14 +2733,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2738,14 +2750,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2754,31 +2766,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2787,14 +2799,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2804,11 +2816,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2820,14 +2832,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2837,14 +2849,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2853,14 +2865,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2870,11 +2882,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2886,14 +2898,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2903,11 +2915,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -2919,14 +2931,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2936,11 +2948,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2952,14 +2964,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2969,14 +2981,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2992,7 +3004,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3009,7 +3021,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3025,21 +3037,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3051,14 +3063,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3068,14 +3080,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3084,28 +3096,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3117,14 +3129,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3134,14 +3146,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3150,14 +3162,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3167,14 +3179,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3190,7 +3202,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3223,7 +3235,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3233,14 +3245,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3249,14 +3261,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3266,11 +3278,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3282,14 +3294,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3299,14 +3311,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3315,14 +3327,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3332,11 +3344,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3348,14 +3360,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3372,7 +3384,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3388,7 +3400,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3398,14 +3410,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3414,14 +3426,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3431,11 +3443,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3447,14 +3459,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3464,14 +3476,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3480,14 +3492,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3497,11 +3509,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3513,14 +3525,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3530,14 +3542,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3546,14 +3558,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3563,14 +3575,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3579,14 +3591,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3596,14 +3608,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3612,14 +3624,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3629,11 +3641,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>29</v>
@@ -3645,14 +3657,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3662,14 +3674,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3685,7 +3697,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3695,11 +3707,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>29</v>
@@ -3711,14 +3723,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3728,11 +3740,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>29</v>
@@ -3744,14 +3756,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3761,11 +3773,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>29</v>
@@ -3777,7 +3789,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3794,14 +3806,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3810,31 +3822,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3843,14 +3855,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3860,11 +3872,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3883,13 +3895,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3897,10 +3909,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3916,7 +3928,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3926,11 +3938,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3949,7 +3961,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3959,14 +3971,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3975,14 +3987,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3992,14 +4004,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4008,14 +4020,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4025,14 +4037,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4058,14 +4070,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4074,31 +4086,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4107,20 +4119,20 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4131,7 +4143,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4147,24 +4159,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>112</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4173,28 +4185,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4206,31 +4218,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4239,31 +4251,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4272,31 +4284,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4312,24 +4324,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>43</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4338,28 +4350,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4371,31 +4383,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>43</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>273</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4404,7 +4416,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4417,18 +4429,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4444,24 +4456,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4470,31 +4482,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>233</v>
+        <v>43</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4503,31 +4515,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4536,31 +4548,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>75</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4569,31 +4581,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4602,31 +4614,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4635,66 +4647,132 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>273</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5996.7700000000004</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>285</v>
       </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>60</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>137</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>259</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>286</v>
       </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
         <v>287</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>137</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>109</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>6238.7700000000004</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>289</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>290</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>291</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5183,10 +5261,20 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -878,7 +878,7 @@
     <t>560.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 9:24 PM</t>
+    <t>Wednesday, 17 September, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALFACALCIDOL 2MCG/ML ORAL DPS. 10 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>86.00</t>
   </si>
   <si>
@@ -209,6 +221,18 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -242,9 +266,6 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>33.00</t>
   </si>
   <si>
@@ -623,12 +644,6 @@
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -878,7 +893,7 @@
     <t>560.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 9:25 PM</t>
+    <t>Wednesday, 17 September, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1536,7 +1551,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1545,14 +1560,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1569,7 +1584,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1578,14 +1593,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1595,14 +1610,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1635,7 +1650,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1644,14 +1659,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1661,14 +1676,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1677,14 +1692,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1694,14 +1709,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1710,14 +1725,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1734,7 +1749,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1750,7 +1765,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1760,14 +1775,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1776,14 +1791,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1800,7 +1815,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1816,7 +1831,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1826,14 +1841,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1842,14 +1857,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1859,14 +1874,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1875,14 +1890,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1899,7 +1914,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1932,7 +1947,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1965,7 +1980,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1981,7 +1996,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1991,14 +2006,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2007,14 +2022,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2031,7 +2046,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2047,7 +2062,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2057,14 +2072,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2073,14 +2088,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2090,14 +2105,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2106,14 +2121,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2123,14 +2138,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2139,14 +2154,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2156,14 +2171,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2172,14 +2187,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2189,14 +2204,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2205,14 +2220,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2222,14 +2237,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2238,14 +2253,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2262,7 +2277,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2271,14 +2286,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2288,14 +2303,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2304,14 +2319,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2321,14 +2336,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2344,7 +2359,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2354,14 +2369,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2377,7 +2392,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2387,14 +2402,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2403,14 +2418,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2420,14 +2435,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2436,14 +2451,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2453,14 +2468,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2469,14 +2484,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2486,14 +2501,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2509,7 +2524,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2519,14 +2534,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2542,7 +2557,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2552,14 +2567,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2568,14 +2583,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2585,14 +2600,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2601,14 +2616,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2618,14 +2633,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2634,14 +2649,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2651,14 +2666,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2667,14 +2682,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2684,14 +2699,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2700,14 +2715,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2717,14 +2732,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2733,14 +2748,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2750,14 +2765,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2766,31 +2781,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2799,14 +2814,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2816,14 +2831,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2832,31 +2847,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2865,14 +2880,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2882,14 +2897,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2898,14 +2913,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2922,7 +2937,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2931,14 +2946,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2952,10 +2967,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2964,14 +2979,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2981,14 +2996,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2997,14 +3012,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3014,14 +3029,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3030,14 +3045,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3047,14 +3062,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3063,14 +3078,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3080,14 +3095,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3096,31 +3111,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3129,14 +3144,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3153,7 +3168,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3169,13 +3184,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3186,7 +3201,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3202,7 +3217,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3212,14 +3227,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3228,14 +3243,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3245,14 +3260,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3261,14 +3276,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3278,14 +3293,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3294,14 +3309,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3311,14 +3326,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3327,14 +3342,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3344,14 +3359,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3360,14 +3375,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3377,14 +3392,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3400,7 +3415,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3410,14 +3425,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3426,14 +3441,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3443,14 +3458,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3459,14 +3474,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3476,14 +3491,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3492,14 +3507,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3509,14 +3524,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3525,14 +3540,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3542,14 +3557,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3558,14 +3573,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3575,14 +3590,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3591,14 +3606,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3608,14 +3623,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3624,14 +3639,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3641,14 +3656,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3657,14 +3672,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3674,14 +3689,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3690,14 +3705,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3707,14 +3722,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3723,14 +3738,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3740,14 +3755,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3756,14 +3771,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3773,14 +3788,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3789,14 +3804,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3806,14 +3821,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3829,7 +3844,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3839,14 +3854,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3855,14 +3870,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3872,14 +3887,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3888,31 +3903,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3928,7 +3943,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3942,10 +3957,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3954,31 +3969,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3987,14 +4002,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4004,14 +4019,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4020,14 +4035,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4041,10 +4056,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4053,14 +4068,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4070,14 +4085,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4086,14 +4101,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4103,14 +4118,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4119,14 +4134,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4136,14 +4151,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4152,31 +4167,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4192,24 +4207,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4218,31 +4233,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4251,31 +4266,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4284,31 +4299,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4317,31 +4332,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4350,31 +4365,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4383,20 +4398,20 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>47</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4407,7 +4422,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4423,24 +4438,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4449,31 +4464,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>43</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>277</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4482,31 +4497,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4515,31 +4530,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>124</v>
+        <v>253</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4548,20 +4563,20 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4569,10 +4584,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4581,31 +4596,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4614,31 +4629,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>116</v>
+        <v>242</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>144</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>75</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4647,31 +4662,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>47</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4680,31 +4695,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>259</v>
+        <v>151</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4713,66 +4728,132 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>277</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>6238.7700000000004</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>289</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>290</v>
       </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>64</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>144</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>264</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>291</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>292</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>144</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>116</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>6266.7700000000004</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>294</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>295</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>296</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5271,10 +5352,20 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BLINK INTENSIVE TEARS EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -662,6 +671,18 @@
     <t>67.3200</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>ROWACHOL 45 CAPSULES</t>
   </si>
   <si>
@@ -893,7 +914,7 @@
     <t>560.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 9:26 PM</t>
+    <t>Wednesday, 17 September, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1897,7 +1918,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1914,7 +1935,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1930,7 +1951,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1940,14 +1961,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1956,14 +1977,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1973,11 +1994,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>33</v>
@@ -1989,14 +2010,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2006,14 +2027,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2022,14 +2043,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2046,7 +2067,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2062,7 +2083,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2072,11 +2093,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2105,11 +2126,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2121,14 +2142,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2145,7 +2166,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2161,7 +2182,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2171,14 +2192,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2194,7 +2215,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2204,7 +2225,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2227,7 +2248,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2237,14 +2258,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2260,7 +2281,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2270,14 +2291,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2310,7 +2331,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2326,7 +2347,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2336,14 +2357,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2352,14 +2373,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2369,14 +2390,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>103</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2392,7 +2413,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2402,11 +2423,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2418,14 +2439,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2435,14 +2456,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2458,7 +2479,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2468,14 +2489,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2491,7 +2512,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2501,14 +2522,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2517,7 +2538,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2534,11 +2555,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>33</v>
@@ -2557,7 +2578,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2567,11 +2588,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>33</v>
@@ -2583,14 +2604,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2600,7 +2621,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2623,7 +2644,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2633,7 +2654,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2666,14 +2687,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2682,14 +2703,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2699,7 +2720,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2722,7 +2743,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2732,11 +2753,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2748,14 +2769,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2765,14 +2786,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2788,7 +2809,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2805,7 +2826,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2821,7 +2842,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2831,11 +2852,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>33</v>
@@ -2847,31 +2868,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2880,31 +2901,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2913,14 +2934,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2930,14 +2951,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2946,14 +2967,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2963,14 +2984,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>156</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2986,7 +3007,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3003,7 +3024,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3019,7 +3040,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3029,14 +3050,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3052,7 +3073,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3062,14 +3083,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3078,14 +3099,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3095,14 +3116,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3118,7 +3139,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3128,11 +3149,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3144,14 +3165,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3161,14 +3182,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3184,13 +3205,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3201,7 +3222,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3217,24 +3238,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3243,14 +3264,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3267,7 +3288,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3283,7 +3304,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3316,7 +3337,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3326,14 +3347,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3342,14 +3363,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3359,14 +3380,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3392,11 +3413,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3408,14 +3429,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3425,7 +3446,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3448,7 +3469,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3458,14 +3479,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3474,14 +3495,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3491,14 +3512,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3507,14 +3528,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3524,11 +3545,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3547,7 +3568,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3557,14 +3578,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3573,14 +3594,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3590,14 +3611,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3613,7 +3634,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3646,7 +3667,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3656,11 +3677,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3672,14 +3693,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3689,14 +3710,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3712,7 +3733,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3745,7 +3766,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3762,7 +3783,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3788,14 +3809,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3804,14 +3825,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3821,14 +3842,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>33</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3837,14 +3858,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3854,11 +3875,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>33</v>
@@ -3870,14 +3891,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3887,11 +3908,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>41</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>33</v>
@@ -3903,14 +3924,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3920,11 +3941,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>33</v>
@@ -3936,7 +3957,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3953,14 +3974,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3969,31 +3990,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4002,14 +4023,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4019,11 +4040,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4035,31 +4056,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4068,14 +4089,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4085,11 +4106,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4101,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4118,14 +4139,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4134,14 +4155,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4151,14 +4172,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4167,14 +4188,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4184,14 +4205,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4200,14 +4221,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4217,14 +4238,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4233,31 +4254,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4266,31 +4287,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4299,31 +4320,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>122</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4332,20 +4353,20 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4378,18 +4399,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4405,24 +4426,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>47</v>
+        <v>270</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4431,31 +4452,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4464,31 +4485,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>47</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4497,28 +4518,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4537,24 +4558,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>282</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4563,7 +4584,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4576,18 +4597,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>86</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4596,31 +4617,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>132</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>289</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4629,31 +4650,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>242</v>
+        <v>47</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4662,31 +4683,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4695,31 +4716,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>123</v>
+        <v>249</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>151</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4728,31 +4749,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>47</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4761,31 +4782,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4794,66 +4815,132 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>282</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>6266.7700000000004</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>294</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
-        <v>295</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
-        <v>296</v>
-      </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>297</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>67</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>147</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>271</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>298</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>299</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>147</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>119</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6335.5</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>301</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>302</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>303</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5362,10 +5449,20 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -263,6 +263,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>CODILAR SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -347,459 +359,468 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>59.7600</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>DROSPADIOL 0.03/3MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:6</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>11.7600</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 250MG 14 TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
+    <t>LANTOPEP 60 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>4:1</t>
   </si>
   <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LIPANTHYL 300MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>MAREVAN 5MG 102 TAB.</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>82.5000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>TENSOPLERON 25MG 30 F.C TAB</t>
+  </si>
+  <si>
+    <t>153.00</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>28.8000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>84.6600</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8250:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>DROSPADIOL 0.03/3MG 21 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>FARCOVIT B12 30 CAPS.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:6</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>11.7600</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 250MG 14 TAB</t>
-  </si>
-  <si>
-    <t>112.00</t>
-  </si>
-  <si>
-    <t>112.0000</t>
-  </si>
-  <si>
-    <t>LANTOPEP 60 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>LIPANTHYL 300MG 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>MAREVAN 5MG 102 TAB.</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>152.0000</t>
-  </si>
-  <si>
-    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>19.5000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>ROWACHOL 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>82.5000</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>TENSOPLERON 25MG 30 F.C TAB</t>
-  </si>
-  <si>
-    <t>153.00</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>28.8000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>16.3200</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8250:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
     <t>بامبرز رقم 2</t>
   </si>
   <si>
@@ -884,6 +905,9 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
@@ -914,7 +938,7 @@
     <t>560.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 9:27 PM</t>
+    <t>Wednesday, 17 September, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2225,11 +2249,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2241,14 +2265,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2258,11 +2282,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2274,14 +2298,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2291,14 +2315,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2307,14 +2331,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2324,14 +2348,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2340,7 +2364,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2357,14 +2381,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2373,14 +2397,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2397,7 +2421,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2406,14 +2430,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2430,7 +2454,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2439,14 +2463,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2489,14 +2513,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2505,14 +2529,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2522,14 +2546,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2545,7 +2569,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2555,14 +2579,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2571,7 +2595,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2588,11 +2612,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>33</v>
@@ -2611,7 +2635,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2621,11 +2645,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>33</v>
@@ -2637,14 +2661,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2654,14 +2678,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2670,14 +2694,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2687,7 +2711,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2720,14 +2744,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2736,14 +2760,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2753,7 +2777,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2776,7 +2800,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2786,11 +2810,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2802,14 +2826,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2819,14 +2843,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2842,7 +2866,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2859,7 +2883,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2875,7 +2899,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2885,11 +2909,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>33</v>
@@ -2901,31 +2925,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2934,31 +2958,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2967,14 +2991,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2984,14 +3008,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3000,14 +3024,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3017,14 +3041,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3033,14 +3057,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3050,14 +3074,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3066,14 +3090,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3083,14 +3107,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3099,14 +3123,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3116,14 +3140,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3132,14 +3156,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3149,14 +3173,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3165,14 +3189,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3182,7 +3206,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3205,7 +3229,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3215,14 +3239,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3231,31 +3255,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3264,14 +3288,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3281,11 +3305,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>33</v>
@@ -3297,28 +3321,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3330,14 +3354,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3347,14 +3371,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3363,14 +3387,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3380,14 +3404,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3396,14 +3420,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3413,11 +3437,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3429,14 +3453,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3446,14 +3470,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3462,14 +3486,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3479,11 +3503,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3495,14 +3519,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3512,14 +3536,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3535,7 +3559,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3545,11 +3569,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3561,14 +3585,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3578,14 +3602,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3594,14 +3618,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3611,14 +3635,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3627,14 +3651,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3644,11 +3668,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3660,14 +3684,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3677,14 +3701,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3700,7 +3724,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3710,11 +3734,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3726,14 +3750,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3743,14 +3767,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3759,14 +3783,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3776,14 +3800,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3799,7 +3823,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3809,14 +3833,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3825,14 +3849,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3842,14 +3866,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3858,14 +3882,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3875,14 +3899,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3898,7 +3922,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,14 +3932,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>92</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3924,14 +3948,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3941,11 +3965,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>33</v>
@@ -3957,14 +3981,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3974,11 +3998,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>33</v>
@@ -3990,14 +4014,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,7 +4031,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4047,7 +4071,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4063,13 +4087,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4077,10 +4101,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4089,14 +4113,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4106,11 +4130,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4122,31 +4146,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4155,14 +4179,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,11 +4196,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4188,14 +4212,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,14 +4229,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4238,14 +4262,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4261,7 +4285,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4271,14 +4295,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,14 +4311,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>152</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4304,14 +4328,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>118</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4327,24 +4351,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>110</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4353,31 +4377,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4386,31 +4410,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4419,20 +4443,20 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4465,18 +4489,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4492,24 +4516,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4518,31 +4542,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4551,31 +4575,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>281</v>
+        <v>47</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4584,28 +4608,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4624,24 +4648,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>47</v>
+        <v>288</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>289</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4650,7 +4674,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4663,18 +4687,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>89</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4683,31 +4707,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>135</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4716,31 +4740,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>249</v>
+        <v>47</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4749,31 +4773,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4782,31 +4806,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>154</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>86</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4815,31 +4839,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>47</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>268</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4848,31 +4872,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>271</v>
+        <v>157</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>272</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4881,66 +4905,132 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>289</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6335.5</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>301</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>302</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>303</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>305</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>67</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>150</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>278</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>306</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>307</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>150</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>122</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>6591.5600000000004</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>309</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>310</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>311</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5459,10 +5549,20 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -938,7 +938,7 @@
     <t>560.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 9:30 PM</t>
+    <t>Wednesday, 17 September, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -302,6 +302,18 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
     <t>CYSTONE 60 TAB</t>
   </si>
   <si>
@@ -461,9 +473,6 @@
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>FARCOVIT B12 30 CAPS.</t>
   </si>
   <si>
@@ -773,6 +782,12 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>TRYPSALIN PLUS 30 TABS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -938,7 +953,7 @@
     <t>560.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 9:33 PM</t>
+    <t>Wednesday, 17 September, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2371,24 +2386,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2397,7 +2412,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2414,14 +2429,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2430,14 +2445,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2454,7 +2469,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>107</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2463,14 +2478,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2487,7 +2502,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2496,14 +2511,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2536,7 +2551,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2546,14 +2561,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2562,14 +2577,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2579,14 +2594,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2595,14 +2610,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2612,14 +2627,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2628,7 +2643,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2645,11 +2660,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>33</v>
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2685,7 +2700,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>128</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2694,14 +2709,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2711,14 +2726,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2744,11 +2759,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>33</v>
@@ -2760,7 +2775,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2777,14 +2792,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2793,14 +2808,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2810,11 +2825,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2843,11 +2858,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2859,14 +2874,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2876,14 +2891,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2892,14 +2907,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2909,14 +2924,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2925,14 +2940,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2942,11 +2957,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>33</v>
@@ -2958,31 +2973,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2991,31 +3006,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3041,14 +3056,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3081,7 +3096,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3097,7 +3112,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3114,7 +3129,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3130,7 +3145,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3163,7 +3178,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3173,14 +3188,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3229,7 +3244,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3239,11 +3254,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3255,14 +3270,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3272,14 +3287,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3295,7 +3310,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3312,7 +3327,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3328,13 +3343,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3345,7 +3360,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3361,24 +3376,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3387,14 +3402,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3411,7 +3426,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3427,7 +3442,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3460,7 +3475,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3470,14 +3485,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3493,7 +3508,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3503,14 +3518,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3536,11 +3551,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3552,14 +3567,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3569,7 +3584,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3592,7 +3607,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3602,14 +3617,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3625,7 +3640,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3635,14 +3650,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3651,14 +3666,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>184</v>
+        <v>47</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3668,11 +3683,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3691,7 +3706,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3701,14 +3716,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3717,14 +3732,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3734,14 +3749,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3757,7 +3772,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3790,7 +3805,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3800,11 +3815,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3816,14 +3831,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3833,14 +3848,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3856,7 +3871,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3889,7 +3904,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3899,14 +3914,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3915,14 +3930,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3939,7 +3954,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3955,7 +3970,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3965,14 +3980,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3988,7 +4003,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>85</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3998,11 +4013,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>33</v>
@@ -4014,14 +4029,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4031,11 +4046,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>33</v>
@@ -4047,14 +4062,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4064,7 +4079,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4087,7 +4102,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4120,7 +4135,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4137,7 +4152,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4153,13 +4168,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4167,7 +4182,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4179,28 +4194,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4212,14 +4227,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4229,14 +4244,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4245,14 +4260,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4262,14 +4277,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>167</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4278,14 +4293,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>47</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4299,10 +4314,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>95</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4311,14 +4326,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4328,14 +4343,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4344,14 +4359,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4361,14 +4376,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4377,14 +4392,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4394,14 +4409,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4410,31 +4425,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4443,20 +4458,20 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4467,7 +4482,7 @@
         <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4489,18 +4504,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4509,28 +4524,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4542,31 +4557,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4575,31 +4590,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>47</v>
+        <v>282</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4608,31 +4623,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4641,20 +4656,20 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>288</v>
+        <v>47</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4665,7 +4680,7 @@
         <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4681,21 +4696,21 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4707,31 +4722,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>47</v>
+        <v>293</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>296</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4740,7 +4755,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4753,18 +4768,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>298</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4780,24 +4795,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>137</v>
+        <v>271</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4806,20 +4821,20 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>255</v>
+        <v>47</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4827,10 +4842,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4839,31 +4854,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4872,31 +4887,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>157</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>90</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4905,31 +4920,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>304</v>
+        <v>47</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4938,31 +4953,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>279</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4971,66 +4986,132 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>296</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>6591.5600000000004</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>309</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>310</v>
       </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>67</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>98</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>283</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>311</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>312</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>98</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>126</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6753.7299999999996</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>314</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>315</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>316</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5559,10 +5640,20 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -680,6 +680,9 @@
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -788,6 +791,12 @@
     <t>160.00</t>
   </si>
   <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -849,9 +858,6 @@
   </si>
   <si>
     <t>23:0</t>
-  </si>
-  <si>
-    <t>30.0000</t>
   </si>
   <si>
     <t xml:space="preserve">جلسرين اوبال </t>
@@ -3871,21 +3877,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>33</v>
@@ -3897,14 +3903,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3914,11 +3920,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>33</v>
@@ -3930,14 +3936,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3947,14 +3953,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3963,14 +3969,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3980,14 +3986,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3996,14 +4002,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4013,14 +4019,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4029,14 +4035,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>85</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4046,11 +4052,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>33</v>
@@ -4069,7 +4075,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4079,11 +4085,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>33</v>
@@ -4095,14 +4101,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4112,11 +4118,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>33</v>
@@ -4128,14 +4134,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4145,11 +4151,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>33</v>
@@ -4161,14 +4167,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4178,14 +4184,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4194,28 +4200,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4227,28 +4233,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4260,14 +4266,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4277,14 +4283,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4293,14 +4299,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4310,11 +4316,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>33</v>
@@ -4326,14 +4332,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>47</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4343,14 +4349,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4359,14 +4365,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4376,14 +4382,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>37</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4392,14 +4398,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>155</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4409,14 +4415,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4425,14 +4431,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4442,14 +4448,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4458,14 +4464,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4475,14 +4481,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>122</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4491,31 +4497,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4524,31 +4530,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4557,14 +4563,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4574,14 +4580,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4590,14 +4596,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4607,11 +4613,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4623,14 +4629,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4640,14 +4646,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4656,14 +4662,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4673,14 +4679,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4689,14 +4695,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4706,14 +4712,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4722,14 +4728,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>293</v>
+        <v>47</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4739,14 +4745,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4755,14 +4761,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4772,11 +4778,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4788,14 +4794,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>47</v>
+        <v>295</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4805,14 +4811,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>301</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4821,7 +4827,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4838,14 +4844,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>157</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>303</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4854,14 +4860,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4871,14 +4877,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>142</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4887,14 +4893,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>260</v>
+        <v>47</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4904,14 +4910,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4927,7 +4933,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4937,14 +4943,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4960,7 +4966,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4970,14 +4976,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>90</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4993,7 +4999,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>309</v>
+        <v>47</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5003,14 +5009,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>280</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5019,14 +5025,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5036,14 +5042,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>284</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5052,14 +5058,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5069,49 +5075,115 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>312</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>67</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>98</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>285</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>313</v>
       </c>
-      <c t="s" r="Q112" s="12">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6753.7299999999996</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
         <v>314</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>98</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>126</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>315</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c t="s" r="Q114" s="12">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6814.7299999999996</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
         <v>316</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>317</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>318</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5650,10 +5722,20 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -959,7 +959,7 @@
     <t>560.0000</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 9:34 PM</t>
+    <t>Wednesday, 17 September, 2025 9:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALFACALCIDOL 2MCG/ML ORAL DPS. 10 ML</t>
   </si>
   <si>
@@ -83,9 +98,6 @@
     <t>153.0000</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -110,9 +122,6 @@
     <t>28.7100</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
@@ -203,9 +212,6 @@
     <t>1:6</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>7.9200</t>
   </si>
   <si>
@@ -917,49 +923,46 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
+    <t>قطن ازن صغير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>مسك الرمان</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>معجون اسنان المسوك الصغير</t>
+  </si>
+  <si>
+    <t>معجون اسنان سيجنال 120 مل عرض</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>560.0000</t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فرش  فوكس عرض</t>
-  </si>
-  <si>
-    <t>قطن ازن صغير</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>مسك الرمان</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>معجون اسنان المسوك الصغير</t>
-  </si>
-  <si>
-    <t>معجون اسنان سيجنال 120 مل عرض</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>560.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 17 September, 2025 9:45 PM</t>
+    <t>Wednesday, 17 September, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1633,7 +1636,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1643,14 +1646,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1659,14 +1662,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1676,14 +1679,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1716,7 +1719,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1749,7 +1752,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1758,14 +1761,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1775,14 +1778,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1791,14 +1794,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1808,14 +1811,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1831,7 +1834,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1841,14 +1844,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1857,14 +1860,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1881,7 +1884,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1897,7 +1900,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1907,14 +1910,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1923,14 +1926,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1940,14 +1943,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1956,7 +1959,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1973,14 +1976,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1996,7 +1999,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2013,7 +2016,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2029,7 +2032,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2039,14 +2042,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2055,14 +2058,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2072,14 +2075,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2088,14 +2091,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2105,14 +2108,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2121,14 +2124,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2138,14 +2141,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2154,14 +2157,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2171,11 +2174,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2187,14 +2190,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2204,11 +2207,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2220,14 +2223,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2237,14 +2240,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2253,14 +2256,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2270,14 +2273,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2286,14 +2289,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2303,11 +2306,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2319,14 +2322,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2336,11 +2339,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2352,14 +2355,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2369,14 +2372,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2385,31 +2388,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2418,31 +2421,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2451,7 +2454,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2468,14 +2471,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2484,14 +2487,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2501,14 +2504,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2517,14 +2520,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2534,14 +2537,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2550,14 +2553,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2567,11 +2570,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2583,14 +2586,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2600,14 +2603,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2623,7 +2626,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2633,14 +2636,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2649,14 +2652,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2666,14 +2669,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2682,14 +2685,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2699,14 +2702,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2715,14 +2718,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2732,14 +2735,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2748,14 +2751,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2765,14 +2768,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>134</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2788,7 +2791,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2798,14 +2801,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2814,7 +2817,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2831,14 +2834,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2854,7 +2857,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2864,11 +2867,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2880,14 +2883,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2897,7 +2900,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2920,7 +2923,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2930,14 +2933,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2946,14 +2949,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2963,14 +2966,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2979,14 +2982,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2996,14 +2999,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3019,24 +3022,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3045,31 +3048,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3078,14 +3081,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3095,14 +3098,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3111,14 +3114,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3128,14 +3131,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3144,14 +3147,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3161,14 +3164,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3177,14 +3180,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3194,14 +3197,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3210,14 +3213,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3227,14 +3230,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3243,14 +3246,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3260,14 +3263,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3276,14 +3279,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3293,7 +3296,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3316,7 +3319,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3326,14 +3329,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3342,14 +3345,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3359,14 +3362,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3375,31 +3378,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3408,31 +3411,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3441,14 +3444,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3458,14 +3461,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3474,14 +3477,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3491,11 +3494,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3507,14 +3510,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3524,14 +3527,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3540,14 +3543,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3557,14 +3560,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3573,14 +3576,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3590,7 +3593,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3613,7 +3616,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3623,11 +3626,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3639,14 +3642,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3656,14 +3659,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3672,14 +3675,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3689,14 +3692,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3705,14 +3708,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3722,11 +3725,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3738,14 +3741,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3755,14 +3758,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3778,7 +3781,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3788,14 +3791,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3804,14 +3807,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3821,11 +3824,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3837,14 +3840,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3854,11 +3857,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3870,31 +3873,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3903,31 +3906,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3936,14 +3939,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3953,14 +3956,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3969,14 +3972,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3986,14 +3989,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4002,14 +4005,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4019,14 +4022,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4035,14 +4038,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4052,14 +4055,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4068,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4085,14 +4088,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4101,14 +4104,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4118,14 +4121,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4141,7 +4144,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4151,14 +4154,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4167,14 +4170,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4184,14 +4187,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4200,14 +4203,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4217,14 +4220,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4233,28 +4236,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>23</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4273,13 +4276,13 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4287,7 +4290,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>226</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4306,7 +4309,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4320,10 +4323,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4339,7 +4342,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4353,10 +4356,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4372,7 +4375,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4382,14 +4385,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4405,7 +4408,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4415,11 +4418,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4448,14 +4451,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>172</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4464,14 +4467,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>155</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4481,14 +4484,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>59</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4504,7 +4507,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4514,14 +4517,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4537,7 +4540,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>30</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,14 +4550,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>27</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4563,31 +4566,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>117</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4603,21 +4606,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>119</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4629,31 +4632,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4675,18 +4678,18 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4695,31 +4698,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4728,28 +4731,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>47</v>
+        <v>290</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>30</v>
@@ -4761,31 +4764,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4794,28 +4797,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4827,28 +4830,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>47</v>
+        <v>297</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4860,31 +4863,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>303</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4893,31 +4896,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>305</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4926,31 +4929,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>141</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4959,28 +4962,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>143</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4992,31 +4995,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>47</v>
+        <v>265</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>167</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5025,31 +5028,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5058,31 +5061,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>87</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>261</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5091,28 +5094,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>67</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5124,66 +5127,99 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>314</v>
+        <v>69</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>126</v>
+        <v>287</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>313</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>314</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>100</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>128</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>315</v>
       </c>
-      <c t="s" r="Q114" s="12">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6814.7299999999996</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
+      <c t="s" r="Q115" s="12">
         <v>316</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6828.25</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
         <v>317</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
         <v>318</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>319</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5732,10 +5768,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -572,7 +572,7 @@
     <t>57.00</t>
   </si>
   <si>
-    <t>57.0000</t>
+    <t>171.0000</t>
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
@@ -962,7 +962,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 10:00 PM</t>
+    <t>Wednesday, 17 September, 2025 10:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3418,7 +3418,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3435,7 +3435,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -5189,7 +5189,7 @@
     </row>
     <row r="116" ht="25.5" customHeight="1">
       <c r="P116" s="13">
-        <v>6828.25</v>
+        <v>6942.25</v>
       </c>
       <c r="Q116" s="13"/>
     </row>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -851,6 +851,15 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
     <t>بامبرز رقم 2</t>
   </si>
   <si>
@@ -962,7 +971,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 10:01 PM</t>
+    <t>Wednesday, 17 September, 2025 10:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4639,7 +4648,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4672,7 +4681,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4682,14 +4691,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4698,14 +4707,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4715,14 +4724,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4731,14 +4740,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4748,14 +4757,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4771,7 +4780,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>50</v>
+        <v>293</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4781,14 +4790,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4804,7 +4813,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4814,14 +4823,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4830,14 +4839,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4847,11 +4856,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4863,14 +4872,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4913,14 +4922,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>136</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>265</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4929,7 +4938,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4946,14 +4955,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>305</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4962,14 +4971,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,14 +4988,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>143</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4995,14 +5004,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>265</v>
+        <v>87</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5012,11 +5021,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>143</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5028,14 +5037,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>50</v>
+        <v>265</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5045,14 +5054,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>169</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5061,14 +5070,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5078,14 +5087,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5094,14 +5103,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>311</v>
+        <v>87</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5111,14 +5120,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>263</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5127,14 +5136,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>69</v>
+        <v>314</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5144,11 +5153,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5160,14 +5169,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>69</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5177,49 +5186,82 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>128</v>
+        <v>290</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>316</v>
       </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6942.25</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
         <v>317</v>
       </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>100</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>128</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>318</v>
       </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c t="s" r="Q116" s="12">
         <v>319</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>7137.25</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>320</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>321</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>322</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5773,10 +5815,15 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -341,16 +341,13 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>9:2</t>
+    <t>9:1</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>-11.8800</t>
-  </si>
-  <si>
-    <t>0:-1</t>
+    <t>0.0000</t>
   </si>
   <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
@@ -377,7 +374,13 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>59.7600</t>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>71.6400</t>
+  </si>
+  <si>
+    <t>1:3</t>
   </si>
   <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
@@ -404,9 +407,6 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:1</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -482,9 +482,6 @@
     <t>FARCOVIT B12 30 CAPS.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -641,9 +638,6 @@
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -971,7 +965,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 10:02 PM</t>
+    <t>Wednesday, 17 September, 2025 10:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2553,7 +2547,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>113</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2562,7 +2556,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2579,11 +2573,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2595,14 +2589,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2612,11 +2606,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2628,14 +2622,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2652,7 +2646,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>62</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2661,7 +2655,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2678,11 +2672,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2694,7 +2688,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2727,7 +2721,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2744,11 +2738,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2760,14 +2754,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -3041,7 +3035,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3078,7 +3072,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>34</v>
@@ -3097,7 +3091,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3107,11 +3101,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3123,14 +3117,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3140,11 +3134,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>134</v>
@@ -3156,7 +3150,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3173,11 +3167,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3189,7 +3183,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3206,11 +3200,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3222,14 +3216,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3239,7 +3233,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3255,7 +3249,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3272,7 +3266,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3288,7 +3282,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3305,11 +3299,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3321,14 +3315,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3342,7 +3336,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3354,7 +3348,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3371,11 +3365,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>134</v>
@@ -3387,7 +3381,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3404,11 +3398,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3420,7 +3414,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3437,11 +3431,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>30</v>
@@ -3453,14 +3447,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3470,11 +3464,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3486,7 +3480,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3503,11 +3497,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3519,7 +3513,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3536,11 +3530,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3552,14 +3546,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3573,7 +3567,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3585,7 +3579,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3602,11 +3596,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3618,7 +3612,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3639,7 +3633,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3651,7 +3645,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3668,11 +3662,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3684,14 +3678,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3701,7 +3695,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3717,7 +3711,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3734,11 +3728,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3750,14 +3744,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3767,11 +3761,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3783,7 +3777,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3804,7 +3798,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3816,7 +3810,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3833,11 +3827,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3849,7 +3843,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3866,11 +3860,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3882,7 +3876,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3915,7 +3909,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3948,7 +3942,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3965,11 +3959,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3981,7 +3975,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3998,11 +3992,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4014,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4031,11 +4025,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4047,14 +4041,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4064,11 +4058,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>97</v>
@@ -4080,14 +4074,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4097,11 +4091,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4113,7 +4107,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4146,7 +4140,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4163,11 +4157,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4179,7 +4173,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4196,11 +4190,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4212,7 +4206,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4229,11 +4223,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4245,7 +4239,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4262,11 +4256,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4278,7 +4272,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4295,7 +4289,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4311,7 +4305,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4328,11 +4322,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4344,7 +4338,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4361,11 +4355,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4377,7 +4371,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4394,7 +4388,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4410,7 +4404,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4431,7 +4425,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4443,14 +4437,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4460,7 +4454,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4476,14 +4470,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4493,11 +4487,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>97</v>
@@ -4509,14 +4503,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4526,11 +4520,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>62</v>
@@ -4542,7 +4536,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4563,7 +4557,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4575,14 +4569,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4592,11 +4586,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>34</v>
@@ -4608,14 +4602,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4625,11 +4619,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4641,7 +4635,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4658,11 +4652,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4674,7 +4668,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4691,11 +4685,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4707,14 +4701,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4728,7 +4722,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>34</v>
@@ -4740,14 +4734,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4757,11 +4751,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4773,14 +4767,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4790,11 +4784,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>30</v>
@@ -4806,7 +4800,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4823,11 +4817,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>34</v>
@@ -4839,7 +4833,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4856,11 +4850,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4872,14 +4866,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4889,11 +4883,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4905,7 +4899,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4922,11 +4916,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4938,7 +4932,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4955,14 +4949,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4971,7 +4965,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4988,14 +4982,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5004,7 +4998,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5037,14 +5031,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5054,11 +5048,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5070,7 +5064,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5091,7 +5085,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>69</v>
@@ -5103,7 +5097,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5120,7 +5114,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5136,14 +5130,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5157,7 +5151,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5169,7 +5163,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5186,11 +5180,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5202,14 +5196,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5219,25 +5213,25 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
       <c r="P117" s="13">
-        <v>7137.25</v>
+        <v>7161.0100000000002</v>
       </c>
       <c r="Q117" s="13"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
       <c t="s" r="A118" s="14">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -5245,13 +5239,13 @@
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
       <c t="s" r="G118" s="15">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
       <c r="J118" s="16"/>
       <c t="s" r="K118" s="17">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L118" s="17"/>
       <c r="M118" s="17"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -554,6 +554,15 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -965,7 +974,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 10:05 PM</t>
+    <t>Wednesday, 17 September, 2025 10:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3421,13 +3430,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3438,7 +3447,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3454,24 +3463,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3480,14 +3489,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3504,7 +3513,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3520,7 +3529,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3553,7 +3562,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3563,14 +3572,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3586,7 +3595,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3596,14 +3605,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3629,11 +3638,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3645,14 +3654,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3662,7 +3671,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3685,7 +3694,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3699,10 +3708,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3711,14 +3720,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3728,14 +3737,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3744,14 +3753,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3761,11 +3770,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3784,7 +3793,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3794,14 +3803,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3810,14 +3819,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3827,14 +3836,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3850,7 +3859,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3883,7 +3892,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3893,11 +3902,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3909,31 +3918,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3942,28 +3951,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3982,7 +3991,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4015,7 +4024,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4025,14 +4034,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4041,14 +4050,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4065,7 +4074,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4081,7 +4090,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4091,14 +4100,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4114,7 +4123,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4124,11 +4133,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4140,14 +4149,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,11 +4166,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4173,14 +4182,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,7 +4199,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4213,7 +4222,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4246,7 +4255,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4263,7 +4272,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4279,13 +4288,13 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4293,7 +4302,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4305,28 +4314,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>226</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4338,14 +4347,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4355,14 +4364,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4371,14 +4380,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,11 +4397,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4404,14 +4413,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,14 +4430,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4437,14 +4446,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4454,11 +4463,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4470,14 +4479,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4487,14 +4496,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>171</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4503,14 +4512,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>121</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4520,14 +4529,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>125</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4536,14 +4545,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4553,14 +4562,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4569,14 +4578,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>30</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,14 +4595,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>27</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4602,31 +4611,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>119</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4635,14 +4644,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,11 +4661,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>118</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4675,7 +4684,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4708,7 +4717,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4718,14 +4727,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4734,14 +4743,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,14 +4760,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4767,14 +4776,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4784,14 +4793,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4807,7 +4816,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>50</v>
+        <v>294</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4817,14 +4826,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4840,7 +4849,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4850,14 +4859,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4866,14 +4875,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4883,11 +4892,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4899,14 +4908,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>50</v>
+        <v>301</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4949,14 +4958,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>136</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>263</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4965,7 +4974,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4982,14 +4991,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>306</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4998,14 +5007,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5015,14 +5024,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5031,14 +5040,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5048,11 +5057,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>143</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5064,14 +5073,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>50</v>
+        <v>266</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,14 +5090,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>14</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>168</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5097,14 +5106,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5114,14 +5123,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5130,14 +5139,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5147,14 +5156,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>261</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5163,14 +5172,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>69</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5180,11 +5189,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5196,14 +5205,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>315</v>
+        <v>69</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5213,49 +5222,82 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
         <v>317</v>
       </c>
-    </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>7161.0100000000002</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
         <v>318</v>
       </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>100</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>129</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
         <v>319</v>
       </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c t="s" r="Q117" s="12">
         <v>320</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>7224.3699999999999</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>321</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>322</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>323</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5814,10 +5856,15 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -974,7 +974,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 10:20 PM</t>
+    <t>Wednesday, 17 September, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -734,12 +734,6 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -749,6 +743,18 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
   </si>
   <si>
@@ -833,7 +839,10 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>16.3200</t>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>32.6400</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -956,9 +965,6 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
@@ -974,7 +980,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 10:25 PM</t>
+    <t>Wednesday, 17 September, 2025 10:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4123,7 +4129,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4137,10 +4143,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4149,7 +4155,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4182,7 +4188,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4203,7 +4209,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4215,14 +4221,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4232,14 +4238,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4248,14 +4254,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4265,11 +4271,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4281,14 +4287,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4298,14 +4304,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4314,28 +4320,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4354,13 +4360,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4368,7 +4374,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>229</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4387,7 +4393,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4404,7 +4410,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4420,7 +4426,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4434,7 +4440,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4453,7 +4459,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4463,14 +4469,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4486,7 +4492,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4496,11 +4502,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4529,14 +4535,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>171</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4545,14 +4551,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>121</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4562,14 +4568,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4585,7 +4591,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4595,14 +4601,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4628,14 +4634,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>34</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4644,31 +4650,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>118</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>119</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4677,14 +4683,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4694,11 +4700,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4717,7 +4723,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4750,7 +4756,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4760,14 +4766,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4776,14 +4782,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4793,14 +4799,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4809,14 +4815,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4826,14 +4832,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4849,7 +4855,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>50</v>
+        <v>297</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4859,14 +4865,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4882,7 +4888,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4892,14 +4898,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4908,14 +4914,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4925,11 +4931,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4941,14 +4947,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>50</v>
+        <v>304</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4991,14 +4997,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>136</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>266</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5007,7 +5013,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5024,14 +5030,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>309</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5040,14 +5046,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5057,14 +5063,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5073,14 +5079,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>266</v>
+        <v>87</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5090,11 +5096,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>143</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5106,14 +5112,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5123,14 +5129,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5139,14 +5145,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5156,14 +5162,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5172,14 +5178,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>87</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5189,14 +5195,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>264</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5205,14 +5211,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5222,11 +5228,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5238,14 +5244,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>318</v>
+        <v>69</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5255,49 +5261,82 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>129</v>
+        <v>294</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>319</v>
       </c>
-      <c t="s" r="Q117" s="12">
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
         <v>320</v>
       </c>
-    </row>
-    <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>7224.3699999999999</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>100</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>129</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>321</v>
       </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
+      <c t="s" r="Q118" s="12">
         <v>322</v>
       </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>7294.3800000000001</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
         <v>323</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>324</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>325</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5861,10 +5900,15 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -980,7 +980,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 10:26 PM</t>
+    <t>Wednesday, 17 September, 2025 10:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>AMARYL 2 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ANALLERGE 4 MG 60 TAB.</t>
   </si>
   <si>
@@ -143,9 +152,6 @@
     <t>2:5</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>12.4800</t>
   </si>
   <si>
@@ -563,6 +569,15 @@
     <t>63.3600</t>
   </si>
   <si>
+    <t>HERBANA 30CAPS</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -794,6 +809,9 @@
     <t>23.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -980,7 +998,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 10:30 PM</t>
+    <t>Wednesday, 17 September, 2025 10:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1852,7 +1870,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1869,7 +1887,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1885,7 +1903,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1895,11 +1913,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1911,14 +1929,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1928,11 +1946,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1944,14 +1962,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1961,14 +1979,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1977,14 +1995,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1994,14 +2012,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2027,11 +2045,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -2043,14 +2061,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2060,14 +2078,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2076,14 +2094,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2093,14 +2111,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2109,14 +2127,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2126,11 +2144,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -2142,14 +2160,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2159,14 +2177,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2175,14 +2193,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2192,14 +2210,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2208,14 +2226,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2225,11 +2243,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2241,14 +2259,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2258,11 +2276,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2274,14 +2292,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2291,14 +2309,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2307,14 +2325,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2324,14 +2342,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2340,14 +2358,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2357,11 +2375,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2373,14 +2391,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2390,11 +2408,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2406,14 +2424,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2423,14 +2441,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2439,28 +2457,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2472,31 +2490,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2505,7 +2523,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2522,14 +2540,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2538,14 +2556,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2555,14 +2573,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2571,14 +2589,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2588,14 +2606,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2604,14 +2622,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2621,11 +2639,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2637,14 +2655,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2654,14 +2672,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2670,14 +2688,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2687,14 +2705,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2703,14 +2721,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2720,14 +2738,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2736,7 +2754,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2753,11 +2771,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2769,14 +2787,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2786,14 +2804,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2802,14 +2820,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2819,14 +2837,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>136</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2842,7 +2860,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2852,11 +2870,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2868,7 +2886,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2885,14 +2903,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2908,7 +2926,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2918,11 +2936,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2934,14 +2952,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2951,7 +2969,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2974,7 +2992,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2984,14 +3002,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3000,14 +3018,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3017,14 +3035,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3033,14 +3051,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3050,7 +3068,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3073,24 +3091,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3099,31 +3117,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3132,14 +3150,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3149,14 +3167,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3165,14 +3183,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3182,14 +3200,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3198,14 +3216,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3215,14 +3233,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3231,14 +3249,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3248,14 +3266,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3264,14 +3282,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3281,14 +3299,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3297,14 +3315,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3314,14 +3332,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3330,14 +3348,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3347,7 +3365,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3370,7 +3388,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3380,14 +3398,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3396,14 +3414,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3413,14 +3431,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3429,7 +3447,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3446,11 +3464,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3462,31 +3480,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3495,14 +3513,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3512,11 +3530,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3528,31 +3546,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3561,14 +3579,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3578,14 +3596,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3594,14 +3612,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3611,14 +3629,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3627,14 +3645,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3644,11 +3662,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3660,14 +3678,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3677,14 +3695,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3700,7 +3718,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3733,7 +3751,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3743,14 +3761,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3766,7 +3784,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3776,11 +3794,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3792,14 +3810,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3809,14 +3827,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3825,14 +3843,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3842,14 +3860,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3865,7 +3883,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3898,7 +3916,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3908,14 +3926,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3924,14 +3942,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3941,11 +3959,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3957,31 +3975,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3990,14 +4008,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4007,14 +4025,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4023,28 +4041,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4056,14 +4074,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4073,14 +4091,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4089,14 +4107,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4106,14 +4124,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4122,14 +4140,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4139,14 +4157,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4155,14 +4173,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4172,14 +4190,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4188,14 +4206,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4205,14 +4223,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4221,14 +4239,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4238,14 +4256,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4254,14 +4272,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4271,11 +4289,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4287,14 +4305,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4304,14 +4322,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4320,7 +4338,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4337,14 +4355,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4353,31 +4371,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>28</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4393,7 +4411,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4407,7 +4425,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4419,31 +4437,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>229</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4452,14 +4470,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4469,14 +4487,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4485,7 +4503,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4502,14 +4520,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4518,14 +4536,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>52</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4535,14 +4553,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4551,14 +4569,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4568,14 +4586,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>43</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4591,7 +4609,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4601,14 +4619,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4634,14 +4652,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4650,14 +4668,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>123</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4667,14 +4685,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>127</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4683,31 +4701,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4723,24 +4741,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>34</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4749,28 +4767,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>120</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4789,24 +4807,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>34</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4815,20 +4833,20 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>293</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4861,18 +4879,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4881,20 +4899,20 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4905,7 +4923,7 @@
         <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4921,24 +4939,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4947,31 +4965,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>304</v>
+        <v>52</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4980,28 +4998,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5013,31 +5031,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>283</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5046,31 +5064,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>312</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5079,31 +5097,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>144</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5112,31 +5130,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>268</v>
+        <v>52</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5145,31 +5163,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5178,31 +5196,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>87</v>
+        <v>274</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>161</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>92</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5211,31 +5229,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>266</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5244,31 +5262,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>294</v>
+        <v>163</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>295</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5277,66 +5295,132 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>322</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>7294.3800000000001</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>323</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
         <v>324</v>
       </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>71</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>102</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>300</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>325</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>326</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>102</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>131</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>7434.9799999999996</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>329</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>330</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>331</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5905,10 +5989,20 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>3FLY 300 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
   </si>
   <si>
@@ -74,9 +92,6 @@
     <t>11.5200</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ALFACALCIDOL 2MCG/ML ORAL DPS. 10 ML</t>
   </si>
   <si>
@@ -167,9 +182,6 @@
     <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>210.00</t>
   </si>
   <si>
@@ -182,6 +194,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 625MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -275,6 +296,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
     <t>CODILAR SYRUP 120 ML</t>
   </si>
   <si>
@@ -317,9 +347,6 @@
     <t>COXORIZET CAPS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>249.00</t>
   </si>
   <si>
@@ -470,9 +497,6 @@
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
-    <t>117.00</t>
-  </si>
-  <si>
     <t>38.6100</t>
   </si>
   <si>
@@ -488,9 +512,6 @@
     <t>FARCOVIT B12 30 CAPS.</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
     <t>45.0000</t>
   </si>
   <si>
@@ -620,9 +641,6 @@
     <t>LANTOPEP 60 MG 20 CAPS.</t>
   </si>
   <si>
-    <t>140.00</t>
-  </si>
-  <si>
     <t>140.0000</t>
   </si>
   <si>
@@ -749,6 +767,12 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>92.0700</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -998,7 +1022,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 10:56 PM</t>
+    <t>Wednesday, 17 September, 2025 10:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1678,18 +1702,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1698,28 +1722,28 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1731,31 +1755,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1764,31 +1788,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1797,31 +1821,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1830,31 +1854,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1863,28 +1887,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1896,31 +1920,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1929,31 +1953,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1962,31 +1986,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1995,28 +2019,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2028,31 +2052,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2061,31 +2085,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2094,31 +2118,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2127,20 +2151,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2151,7 +2175,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2167,24 +2191,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2206,7 +2230,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2217,7 +2241,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2233,17 +2257,17 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2272,7 +2296,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2283,7 +2307,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2299,24 +2323,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2325,20 +2349,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2349,7 +2373,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2371,7 +2395,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2382,7 +2406,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2398,17 +2422,17 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2431,13 +2455,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2470,18 +2494,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2490,31 +2514,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2530,13 +2554,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2547,7 +2571,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2563,24 +2587,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2596,7 +2620,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2606,14 +2630,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2622,31 +2646,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2655,28 +2679,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2688,31 +2712,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2721,31 +2745,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2754,31 +2778,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2787,31 +2811,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2820,31 +2844,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>136</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2853,31 +2877,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2893,13 +2917,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2910,7 +2934,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2926,24 +2950,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2952,28 +2976,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2985,28 +3009,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3018,31 +3042,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3051,31 +3075,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3084,31 +3108,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3117,31 +3141,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>34</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3150,28 +3174,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3183,31 +3207,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3223,7 +3247,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3233,14 +3257,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3249,31 +3273,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3282,31 +3306,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3315,31 +3339,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3355,13 +3379,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3388,24 +3412,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3414,31 +3438,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3447,31 +3471,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3480,31 +3504,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3513,31 +3537,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3546,31 +3570,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3579,14 +3603,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3596,14 +3620,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3612,28 +3636,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3645,14 +3669,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3662,14 +3686,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3678,31 +3702,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3711,31 +3735,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3744,31 +3768,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3777,28 +3801,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3810,31 +3834,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3843,31 +3867,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3883,13 +3907,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>196</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3900,7 +3924,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3916,24 +3940,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3949,24 +3973,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3975,31 +3999,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4008,28 +4032,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4041,31 +4065,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4074,31 +4098,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4107,31 +4131,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4140,14 +4164,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>99</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4157,11 +4181,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4173,31 +4197,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4206,31 +4230,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4239,31 +4263,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4272,31 +4296,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4305,31 +4329,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4338,31 +4362,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4371,31 +4395,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4404,31 +4428,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4437,28 +4461,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4477,13 +4501,13 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4494,7 +4518,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4516,7 +4540,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4524,10 +4548,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4536,14 +4560,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4553,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4569,31 +4593,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4602,28 +4626,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4635,31 +4659,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4675,24 +4699,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4714,18 +4738,18 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4734,31 +4758,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>34</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4767,31 +4791,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>132</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>121</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4800,31 +4824,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>32</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4833,20 +4857,20 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4857,7 +4881,7 @@
         <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4879,18 +4903,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>272</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4906,24 +4930,24 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>299</v>
+        <v>39</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4932,31 +4956,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>303</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4965,31 +4989,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>52</v>
+        <v>305</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4998,31 +5022,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5031,31 +5055,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5071,13 +5095,13 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5088,7 +5112,7 @@
         <v>315</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5104,24 +5128,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>289</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5137,24 +5161,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>52</v>
+        <v>318</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>318</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5163,31 +5187,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>145</v>
+        <v>322</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>146</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5196,31 +5220,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5229,31 +5253,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>314</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>71</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5262,31 +5286,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5295,31 +5319,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5328,31 +5352,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>301</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5361,66 +5385,165 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>326</v>
+        <v>99</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>327</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>328</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>7434.9799999999996</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>329</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>330</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
         <v>331</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>258</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>13</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>48</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>332</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>78</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>13</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>308</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>333</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>334</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>13</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>140</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>335</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>7667.5200000000004</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>337</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>338</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>339</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5999,10 +6122,25 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -1022,7 +1022,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 10:57 PM</t>
+    <t>Wednesday, 17 September, 2025 11:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -905,6 +905,9 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>ايفا سموكر كبير</t>
+  </si>
+  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
@@ -1022,7 +1025,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 11:11 PM</t>
+    <t>Wednesday, 17 September, 2025 11:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4940,11 +4943,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>96</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>22</v>
@@ -4956,14 +4959,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4973,11 +4976,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -4989,14 +4992,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>305</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5006,14 +5009,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>20</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5022,14 +5025,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5039,14 +5042,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5055,14 +5058,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5072,14 +5075,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5088,14 +5091,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5105,14 +5108,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5121,14 +5124,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5138,14 +5141,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5161,7 +5164,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>318</v>
+        <v>89</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5171,11 +5174,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5187,14 +5190,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5204,11 +5207,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5220,7 +5223,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5237,14 +5240,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>297</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5270,14 +5273,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>167</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>326</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5286,14 +5289,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5303,14 +5306,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>154</v>
+        <v>315</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>22</v>
+        <v>327</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5326,7 +5329,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>282</v>
+        <v>99</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5336,11 +5339,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>319</v>
+        <v>154</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>320</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>22</v>
@@ -5359,7 +5362,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5369,14 +5372,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>177</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5392,7 +5395,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5402,14 +5405,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5425,7 +5428,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>258</v>
+        <v>99</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5435,14 +5438,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>280</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5458,7 +5461,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5468,11 +5471,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>308</v>
+        <v>48</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>22</v>
@@ -5491,7 +5494,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5501,49 +5504,82 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>140</v>
+        <v>309</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>334</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
         <v>335</v>
       </c>
-      <c t="s" r="Q123" s="12">
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>13</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>140</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>336</v>
       </c>
-    </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>7667.5200000000004</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
+      <c t="s" r="Q124" s="12">
         <v>337</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>7712.5200000000004</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
         <v>338</v>
       </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
         <v>339</v>
       </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>340</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6137,10 +6173,15 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -320,259 +320,265 @@
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>95.7600</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>71.6400</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>DROSPADIOL 0.03/3MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:6</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>11.7600</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
     <t>3:1</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>COXORIZET CAPS</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>82.1700</t>
-  </si>
-  <si>
-    <t>CYSTONE 60 TAB</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>98.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>71.6400</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>DROSPADIOL 0.03/3MG 21 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>FARCOVIT B12 30 CAPS.</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:6</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>11.7600</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
     <t>54.00</t>
@@ -2541,7 +2547,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -3462,7 +3468,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3474,7 +3480,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3491,11 +3497,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3507,7 +3513,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3528,7 +3534,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3540,14 +3546,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3557,11 +3563,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>145</v>
@@ -3573,7 +3579,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3590,11 +3596,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3606,7 +3612,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3623,11 +3629,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3639,7 +3645,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3656,11 +3662,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3672,7 +3678,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3689,11 +3695,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>35</v>
@@ -3705,14 +3711,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3722,11 +3728,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3738,7 +3744,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3755,11 +3761,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>22</v>
@@ -3771,7 +3777,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3792,7 +3798,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>22</v>
@@ -3804,14 +3810,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3825,7 +3831,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3837,7 +3843,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3854,11 +3860,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>22</v>
@@ -3870,7 +3876,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3891,7 +3897,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>22</v>
@@ -3903,7 +3909,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3920,11 +3926,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>22</v>
@@ -3936,7 +3942,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3953,7 +3959,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3969,7 +3975,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3986,11 +3992,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>22</v>
@@ -4002,14 +4008,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4019,11 +4025,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>22</v>
@@ -4035,7 +4041,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4056,7 +4062,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4068,7 +4074,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4085,11 +4091,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>22</v>
@@ -4101,7 +4107,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4118,11 +4124,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>22</v>
@@ -4134,7 +4140,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4167,7 +4173,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4200,7 +4206,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4217,11 +4223,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4233,7 +4239,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4250,11 +4256,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4266,14 +4272,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4283,11 +4289,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>22</v>
@@ -4299,7 +4305,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4316,11 +4322,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>109</v>
@@ -4332,14 +4338,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4349,11 +4355,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>145</v>
@@ -4365,7 +4371,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4398,7 +4404,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4415,11 +4421,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4431,14 +4437,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4448,11 +4454,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>22</v>
@@ -4464,7 +4470,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4481,11 +4487,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4497,7 +4503,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4514,11 +4520,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4530,7 +4536,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4547,11 +4553,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>22</v>
@@ -4563,7 +4569,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4580,7 +4586,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4596,7 +4602,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4613,11 +4619,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>39</v>
@@ -4629,7 +4635,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4646,11 +4652,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4662,7 +4668,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4679,7 +4685,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4695,7 +4701,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4716,7 +4722,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>22</v>
@@ -4728,14 +4734,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4761,14 +4767,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4778,11 +4784,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>109</v>
@@ -4794,7 +4800,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4815,7 +4821,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>71</v>
@@ -4827,14 +4833,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4848,7 +4854,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>109</v>
@@ -4860,14 +4866,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4877,11 +4883,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>39</v>
@@ -4893,14 +4899,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4926,7 +4932,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4959,7 +4965,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4976,11 +4982,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -4992,7 +4998,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5009,11 +5015,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>22</v>
@@ -5025,14 +5031,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5046,7 +5052,7 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>39</v>
@@ -5058,14 +5064,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5075,11 +5081,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5091,14 +5097,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5108,11 +5114,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>35</v>
@@ -5124,7 +5130,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5141,11 +5147,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>39</v>
@@ -5157,7 +5163,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5174,11 +5180,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5190,14 +5196,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5207,11 +5213,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5223,7 +5229,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5240,11 +5246,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>22</v>
@@ -5256,7 +5262,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5273,14 +5279,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5289,7 +5295,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5306,14 +5312,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5322,7 +5328,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5355,14 +5361,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5372,11 +5378,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>22</v>
@@ -5388,7 +5394,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5421,7 +5427,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5442,7 +5448,7 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>35</v>
@@ -5454,14 +5460,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5475,7 +5481,7 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>22</v>
@@ -5487,7 +5493,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5504,11 +5510,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>22</v>
@@ -5520,14 +5526,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5541,21 +5547,21 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
       <c r="P125" s="13">
-        <v>7712.5200000000004</v>
+        <v>7736.2799999999997</v>
       </c>
       <c r="Q125" s="13"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
       <c t="s" r="A126" s="14">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -5563,13 +5569,13 @@
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
       <c t="s" r="G126" s="15">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
       <c r="J126" s="16"/>
       <c t="s" r="K126" s="17">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L126" s="17"/>
       <c r="M126" s="17"/>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 12:04 AM</t>
+    <t>Thursday, 18 September, 2025 12:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-17_00-00.xlsx
+++ b/DaySale_2025-09-17_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 12:07 AM</t>
+    <t>Thursday, 18 September, 2025 12:17 AM</t>
   </si>
   <si>
     <t>1/1</t>
